--- a/data/hotels_by_city/Dallas/Dallas_shard_723.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_723.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="899">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>cutlass3269</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -177,6 +180,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>kmayal403892</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r567970259-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -195,6 +201,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>svenjasmith</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r566352118-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -213,6 +222,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>xavierm828</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r549764029-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -234,6 +246,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>osgalvan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r547871506-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -249,6 +264,9 @@
     <t>We had a wonderful time the hotel was great, clean, comfortable, and close to At&amp;T Stadium. We had differences in room rates but thanks to Chuck at the front desk who looked into it told me they would be looking into it. I got a call from the hotel manager Mike Natha within minutes assuring me that this would be corrected ASAP. We've stayed at this hotel several times before and have always been please with rooms accommodations and the service they provide. We recommend and will continue to coming back to this location. Keep up the great work.</t>
   </si>
   <si>
+    <t>Kristi806</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r546078578-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -264,6 +282,9 @@
     <t>We wanted a room that was close to AT&amp;T Stadium at a good price. This room was what we were looking for. I would not wonder off of the property alone though, the neighboring convienence store was a little scary.</t>
   </si>
   <si>
+    <t>Carol B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r539688490-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -282,6 +303,9 @@
     <t>November 2017</t>
   </si>
   <si>
+    <t>Alex G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r537293857-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -303,6 +327,9 @@
     <t>Let me start this review by stating that I travel A LOT due to my work. Just today i have driven from Branson, Missouri to Dallas and I yet again decide to stay here simply because for the price you pay you CANNOT get a friendlier staff, more convenient location, or a cleaner, nicer room. Keeping in mind i had, just earlier today, left Welk resorts in Branson i would compare this motel closely to the kindness and hospitality I was shown at a resort that exceeded twice the price. And the cleanliness exceeded the resort (on account that when i entered my room at Welks i found dip cans in the blow drier bag in the bathroom). The beds at this super 8 are remarkably comfortable, and the staff everyone from the manager to the room service lady, and the gentleman at the front desk made me believe i was staying somewhere much much more expensive. Case and point is I am hooked on this motel and will be a regular customer from now on since i am in dfw quite a bit. Thank you to the staff for such wonderful experiences.More</t>
   </si>
   <si>
+    <t>vatravelers2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r534749307-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -318,6 +345,9 @@
     <t>The staff was very friendly, courteous &amp; helpful. The room was great &amp; the bed very comfortable. The breakfast selection was very limited &amp; the internet was not secure. Overall the stay was very good &amp; we enjoyed our time there.</t>
   </si>
   <si>
+    <t>lisabE4131OH</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r521439034-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -336,6 +366,9 @@
     <t>September 2017</t>
   </si>
   <si>
+    <t>walts52</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r514543750-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -354,6 +387,9 @@
     <t>August 2017</t>
   </si>
   <si>
+    <t>682tonyae</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r501638691-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -372,6 +408,9 @@
     <t>July 2017</t>
   </si>
   <si>
+    <t>Nk0810</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r499534371-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -388,6 +427,9 @@
   </si>
   <si>
     <t>June 2017</t>
+  </si>
+  <si>
+    <t>X5173GUtimt</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r497328876-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
@@ -418,6 +460,9 @@
 4)...Booked a week prior. Arriving at 6PM, we were assigned a room upstairs. As I reached our door, the clerk came after me and said he could put us downstairs since we were booked for 3 nights.1) That room was quite run-down and smelled of smoke, BO and mold. My wife is very sensitive to all of those things. We immediately said no. The clerk offered the room next door. 2) After a quick bed check we said it would work. Uh-oh! Too soon! As I unpacked our van, my wife came out to say she had found poop in the toilet. Also, a long-term leak upstairs made a big bubble in the ceiling paint just above where you would stand in the shower. It blistered and hung down about 6 inches, with a growth of black mold on the ceiling drywall. The hotel manager (same last name as hospitality group that owns the place) was playing with his unleashed Pit Bull in the lot next door as the clerk ran to inform him of this. The manager put his dog away and hustled down to our room, apologized and offered us another room with a walk-in shower. 3) There, the bathroom floor was wet from toilet to door and beyond with standing water. As he stood in the puddle with his shoes leaving muddy prints, he said that it "has just been mopped". Wife said no again.4) We were then guided upstairs to the original room assigned. On the way, he said he got the dog 4 days prior and had not been focused on managing the hotel, so staff had gotten lax, then mumbled something about a new housekeeper, etc. Arriving at that room, he opened, then quickly closed the door, but not before I saw heaped linens piled on both beds. 5) Then we moved on to the room next door to that one. We inspected thoroughly and found it acceptable.So that is 5 rooms opened to get one we could actually use...The beds were awful. I have never slept on a worse mattress. We toughed it out for our 3 nights and hung the Do Not Disturb sign out every day while we were gone. It appeared that no one entered while we were out.On departure morning, we found a woman screaming and throwing things at her male companion who laid on concrete in the downstairs passage. I believe they were not entirely sane, and they appeared homeless.  However, my daughter said she had seen the woman working as housekeeper the prior day. Scary for my wife and kids! Never staying here again! Manager offered a 20% discount on entire stay, but only credited back 13% of what we had paid.Manager and clerk were both nice. Hotel is poor.More</t>
   </si>
   <si>
+    <t>578liaa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r497293226-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -433,6 +478,9 @@
     <t>Check in was super fast and friendly. Size of the room was nice but the ac was not turned on when we arrived so the room was boiling and took a long time to cool off. It was a smoking room but it didn't stink like most do. A hotel employee barged into our room not knowing we had checked in already so that was a little awkward but no big deal since we had just arrived and were just getting settled in. A few of the lights didn't work so it was a little dark. The Jacuzzi was wonderful! Overall I would definitely stay again. Despite the few problems.More</t>
   </si>
   <si>
+    <t>ricardoo854</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r492207366-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -451,6 +499,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>8tammyf</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r491327598-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -466,6 +517,9 @@
     <t xml:space="preserve">Rooms were updated and very clean. Bathroom was spacious, clean and very appealing. The staff at check in was courteous and very knowledgeable of the area when asked for directions. Check in and out was very speedy and convenient. </t>
   </si>
   <si>
+    <t>Z474QFrebeccag</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r488780922-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -484,6 +538,9 @@
     <t>May 2017</t>
   </si>
   <si>
+    <t>Rissa W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r478847885-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -502,6 +559,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>almostmarc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r476439265-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -517,6 +577,9 @@
     <t>I had a very pleasant stay. Jimmy at the front desk was very friendly and accommodating. The hotel was clean, safe, and had free breakfast with waffles, coffee, juices, and fresh fruit. My room had a microwave and refrigerator. I was in town for an event at AT&amp;T Stadium and I stayed 4 nights. I would happily stay here again.</t>
   </si>
   <si>
+    <t>SamS2354</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r472256952-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -538,6 +601,9 @@
     <t>It is a nice place to stay and very quiet. Even the other guests seem nice. They got all new furniture towards the end of my 9 day stay and it helped give it a more modern atmosphere. They do serve breakfast but it is in a back room in the office so i never even noticed it until i was leaving really. The employees behind the desk are very courteous to deal with and the housekeeping staff is very nice. They will not bother you at all if that is what you wish, however, it is easy to get things from them like fresh towels or trash bags. Also, if you want your room cleaned a little later, they will be happy to oblige. Overall my 9 day stay here was not bad.More</t>
   </si>
   <si>
+    <t>samuelsR3234AW</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r464534749-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -553,6 +619,9 @@
     <t>I stayed 8 days and was pleased. It is a very nice place to stay. Service is good and employees go out of the way not to disturb you. If there is any problems management is quick to help. Even other guests seem friendly.</t>
   </si>
   <si>
+    <t>kimmS9678PD</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r462352990-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -571,6 +640,9 @@
     <t>February 2017</t>
   </si>
   <si>
+    <t>F5862HSchristophera</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r458752570-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -586,6 +658,9 @@
     <t xml:space="preserve">Renovated rooms, soft bed with decent pillows. Bathroom could have been a bit cleaner but overall a goo room for the price. Only real gripe would be Road noise from the highway but that would be a minor gripe. </t>
   </si>
   <si>
+    <t>melhess21</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r447451404-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -613,6 +688,9 @@
     <t>The only reason I choose this hotel was because of the location to AT&amp;T Stadium. I was attending the 12/26/16 Monday Night Football game. That's pretty much what it was it great for.  The room itself was a regular hotel room, however there was some weird sticky substance on one of the night stands &amp; TV screen.  I did not touch it &amp; thank goodness I travel with wet wipes to so I can wipe things down.  The evening/early morning front desk staff left a lot to be desired.  When I checked in, I thought it was standard policy for hotels not say the room numbers for safety reasons.  The gentleman checking me said rather loudly with someone behind me what room I was assigned.  Then for checkout, I confirmed that someone would be there so I can check out because I had to be out by 430a to make a 6a flight &amp; was told yes.  I got to the office at 4a and was in the office until 420a and there was a little sign on the front desk saying "be back in 5 minutes".  At the 415a mark I started ringing the bell.  No one ever came.  I tried to go out the front doors but those were locked.  However the side door I originally came in was open.  When I called the front desk from the airport, the only reason I was given for the guy...The only reason I choose this hotel was because of the location to AT&amp;T Stadium. I was attending the 12/26/16 Monday Night Football game. That's pretty much what it was it great for.  The room itself was a regular hotel room, however there was some weird sticky substance on one of the night stands &amp; TV screen.  I did not touch it &amp; thank goodness I travel with wet wipes to so I can wipe things down.  The evening/early morning front desk staff left a lot to be desired.  When I checked in, I thought it was standard policy for hotels not say the room numbers for safety reasons.  The gentleman checking me said rather loudly with someone behind me what room I was assigned.  Then for checkout, I confirmed that someone would be there so I can check out because I had to be out by 430a to make a 6a flight &amp; was told yes.  I got to the office at 4a and was in the office until 420a and there was a little sign on the front desk saying "be back in 5 minutes".  At the 415a mark I started ringing the bell.  No one ever came.  I tried to go out the front doors but those were locked.  However the side door I originally came in was open.  When I called the front desk from the airport, the only reason I was given for the guy not being there was he was at the gas station.  Not quite sure why someone needs to be at a gas station for 20 minutes but that's the reason I was given.  I asked to have my receipt emailed to me, that never came through &amp; when I tried calling back to say I never got it &amp; ask to have it resent, no one answered &amp; I called multiple times.  Even though the location is great for what I needed, I would rather rent a car &amp; sleep in it then stay there again.More</t>
   </si>
   <si>
+    <t>lukeescude</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r446313267-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -628,6 +706,9 @@
     <t>I've been to this particular Super 8 several times, and every time has been a good experience. The rooms were clean, the WiFi was solid (and free!), and the staff was very friendly.I've met Mike, the owner, at least twice on my visits, and his friendliness and laid-back attitude are always refreshing.Their phone system also works reliably, we were able to call local, long distance, and even make a few calls to Canada without issues. I've been to many hotels that had poorly functioning phones, so it was a nice surprise.Thanks guys! Looking forward to seeing you again the next time my job takes me that direction.</t>
   </si>
   <si>
+    <t>gfh77665</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r445983900-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -643,6 +724,9 @@
     <t>Walked in and immediately found two inches of standing water in the bath tub. (seriously?)  A lone roach ran around the base of the toilet. Noticed toilet seat completely broken off its hinge. Next day we returned and found a dozen or so roaches running wild in and around the dresser, on floor and in in every drawer. Toilet seat still not fixed. Asked to move rooms, but none were available. Breakfast was little more than a single waffle machine. What a wreck. Never again.</t>
   </si>
   <si>
+    <t>234martyb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r437142402-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -661,6 +745,9 @@
     <t>November 2016</t>
   </si>
   <si>
+    <t>stevenwC5995RD</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r430635114-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -679,6 +766,9 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>davideE1724VB</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r426400821-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -694,6 +784,9 @@
     <t xml:space="preserve">Front desk staff was super nice and helpful. Room was clean and quiet. Good hotel for catching a cowboys or rangers game. </t>
   </si>
   <si>
+    <t>Ivette790</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r420176283-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -712,6 +805,9 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>thesaint680</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r415503704-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -736,6 +832,9 @@
     <t>Room smelled like carpet had been wet.  Had to ask for a can of lysol from front desk.  Sprayed the entire room.  Made it bearable, but really felt unclean.  More</t>
   </si>
   <si>
+    <t>sugar2sugars</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r415104600-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -754,6 +853,9 @@
     <t>We planned a trip to six flags and I made reservations with this hotel the gentleman I talked to that was working the front desk was so helpful and I really appreciate his help. The hotel was very clean and also quiet for its location we will definitely be coming back.More</t>
   </si>
   <si>
+    <t>TexTraveler21</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r408981917-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -781,6 +883,9 @@
     <t>Stayed here to attend a Ranger's game with the family. We booked a non-smoking king room and requested a pullout bed. Somewhere along the line our reservation got messed up and we ended up with no pullout bed in a king room that said no smoking but had very obviously and very recently had been smoked in. The smell was overwhelming when we first walked in. The hotel was full, no other rooms open so we just ran to the gas station next door and bought car air pine tree air fresheners and stuck several of them in the air conditioner vents in the room and propped the door open for a while which seemed to do the trick. The room was clean otherwise and we made due with the situation. Overall we got what we paid for basically.More</t>
   </si>
   <si>
+    <t>rene807</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r406850736-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -802,6 +907,9 @@
     <t>Very good customer service! Fast and easy check in. Employees very helpful. Rooms are clean and very nicely updated!! Beds are very comfortable.. Had a wonderful stay. Free breakfast was very good also.. More</t>
   </si>
   <si>
+    <t>toddd712</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r406284533-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -817,6 +925,9 @@
     <t xml:space="preserve">No pressure in bath waited an hour to try to fill tub no shower at all told front desk all they said was they were having problems </t>
   </si>
   <si>
+    <t>216demetriaj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r400598056-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -832,6 +943,9 @@
     <t>Stay was okk! Pillows had no cases and no towels in room. Reported problem and it was corrected. Over all great stay! Will stay again.</t>
   </si>
   <si>
+    <t>rayg740</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r398860757-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -847,6 +961,9 @@
     <t>Rooms were clean, staff were personable, facilities were old but fairly well maintained. for an economical place to stay it was on the mark. The continental breakfast was nothing to write home about. If you are trying to save money and be close to the ball parks this is the way to go. Just remember you get what you pay for. Don't expect too much and you will have an acceptable experience.</t>
   </si>
   <si>
+    <t>darolynn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r397995683-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -862,6 +979,9 @@
     <t xml:space="preserve">This Super 8 was great place to stay for convention in Arlington. Friendly staff and clean room. </t>
   </si>
   <si>
+    <t>Ibhux</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r391488969-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -880,6 +1000,9 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>C9188IBheathert</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r388454819-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -889,6 +1012,9 @@
     <t>07/02/2016</t>
   </si>
   <si>
+    <t>V7666INjoep</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r385507553-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -904,6 +1030,9 @@
     <t xml:space="preserve">Our families have always enjoyed a comfortable nights sleep at Super 8. Nice warm breakfast. Recommend highly. </t>
   </si>
   <si>
+    <t>52candacel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r378139056-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -928,6 +1057,9 @@
     <t>The picture of the hotel on the computer is nothing what it looks like in person.  For two double beds it is a lot smaller.  An air mattress is definitely more comfortable then the beds.More</t>
   </si>
   <si>
+    <t>ChampagneCory</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r370008785-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -949,6 +1081,9 @@
     <t>The manager of the hotel was very friendly and accommodating of the guests staying for WrestleMania. They ran a free shuttle to and from the stadium before and after the event, he said he would be doing it during football games as well. The housekeeping staff was extremely friendly to all guests. Always, hello and hi from every single one of them. My neighbors and I chatted one up for a couple minutes and she genuinely possessed the right hospitality mentality. The building was recently renovated, however a couple corners were cut. No big deal as we were just in town for a crash pad. Nothing to do with the hotel, but the hotel is a little far of nightlife which is kind of a draw back. However, when we wanted to head out the hotel manager offered to give us a ride and even pick us up in the shuttle, which was a very nice perk. If I am ever in Arlington again for a sporting event I would definitely come back if the price is right. Plus free breakfast and Wi-Fi (although Wi-Fi was a little spotty at times)!More</t>
   </si>
   <si>
+    <t>walterine</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r369970978-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -970,6 +1105,9 @@
     <t>I was very upset  I had my hold family  with  me I ask if I can have my rooms ready by 4am  They told  me it will be 15 dollars  more I agree  I gets there room was not ready I was told 2 come back at 11am rooms  was still not ready but  1st of all I had 2 pay go get another  room till my room was ready and still was charged  the extra  15 dollars  rooms was not ready  till after  12More</t>
   </si>
   <si>
+    <t>Arturo G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r352467173-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -988,6 +1126,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>Nisha D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r352440494-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1000,6 +1141,9 @@
     <t>Nice and friendly staff . Although are stay was during the renovation.The new rooms are very nice...my family and I enjoyed are stay. They are very clean and spacious.  most definitely will book with them again.Thanks Super 8</t>
   </si>
   <si>
+    <t>Atti2de I</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r351163764-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1027,6 +1171,9 @@
     <t>My son and I visit here while waiting on our apartment and the rooms were very lovely. I really appreciated the fact that the smoking room does not smell like smoke. The breakfast was a plus as well. It's conveniently located near the interstate with surprisingly no interstate noises. More</t>
   </si>
   <si>
+    <t>Ctx1502</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r349429142-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1051,6 +1198,9 @@
     <t>Clean. Smelled nice. Staff went above and beyond on accommodations, and were very inconspicuous.More</t>
   </si>
   <si>
+    <t>miguelg198109</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r348877330-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1072,6 +1222,9 @@
     <t>We usually come to Arlington to visit family. I decided to stay here since the rates were good and location was prefect. The hotel has friendly staff and are renovating. It is a older property but well kept. We went to a convention and will be back this summer. I'll be staying there again because the rates are reasonable. The pool was closed but it is usually open.More</t>
   </si>
   <si>
+    <t>onetravelingdiva</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r337571953-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1099,6 +1252,9 @@
     <t>construction made it a little challenging to navigate near here but overall ok, need some protein on the breakfast, convenient location to major highway, staff was very friendly, rooms could use some updatingMore</t>
   </si>
   <si>
+    <t>Robert J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r334123274-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1123,6 +1279,9 @@
     <t>Staff was friendly, but hotel not worth the rate. Customer must ask for ice at front desk because there is no accessible ice machine. After check in I had to change rooms twice because heater would not work. First room had heater whose knobs did not grab and turn the control units under them, so I could not turn on heater, adjust heat, or in any way control the unit. After taking off the cover of the heating unit and trying to resolve the problem, the clerk changed us to a second room. The heater in the second room would not blow hot air and it rattled. After another room change, heater worked ok. Heaters are obviously old and need to be replaced.The toilets appeared to be new, but the property is older and not as nice at many other super 8's at which I've stayed.More</t>
   </si>
   <si>
+    <t>mvance2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r331682445-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1132,6 +1291,9 @@
     <t>12/09/2015</t>
   </si>
   <si>
+    <t>NAD3012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r331112603-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1150,6 +1312,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>David G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r329314513-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1168,6 +1333,9 @@
     <t>My experience at this hotel diddnt start off as i planned and i thought i was in for a long weekend,there were a couple issues with my room once i got settled in that if were not taken care of would have led to my not returning to this hotel,,,once i called in my issues a member of management by the name of mike came to my room in a timely manner wich was a plus since it was late into the night already,,he diddnt leave untill he made sure all the issues were addressed,,he was very perfesional and made sure i would be a return customer,,all in all my trip turned into one of my best ever,,,thanks for your hospitality "mike"...i will definitely recommend this hotel to any one who is planning a trip to see a dallas cowboy game or is just passing through and needs to stop to rest for the night,,its a great location with food and gas station within walking distance,,tha price is also very affordable wich is a plus ,,,,i will be planning my next trip soon and will be sure to book my room with this hotel again,,thanks More</t>
   </si>
   <si>
+    <t>felipeh822</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r328427140-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1192,6 +1360,9 @@
     <t>Horrible front desk service and the manager kept calling me the day off check in to try to give my room up.More</t>
   </si>
   <si>
+    <t>jennifertV7055SP</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r320497560-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1216,6 +1387,9 @@
     <t>Walls, table tops light switches doors dirty. Noisy fan in bathroom. filthy sidewalks and nasty dirty garbage cans. Stuff spilled and never wiped up. Not a clean place at all. Bath tub had no stopper so no bath. Shower only. Stingy on towels too. More</t>
   </si>
   <si>
+    <t>Andrew J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r314868132-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1234,6 +1408,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>tharanidevik</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r314546787-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1249,6 +1426,9 @@
     <t>The rooms were clean. Taco Bell and Burger King are in a walk able distance. Valero is right next to the motel. The staff  are friendly. Would recommend this hotel to anyone looking for a comfortable stay.</t>
   </si>
   <si>
+    <t>Mark B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r314184125-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1264,6 +1444,9 @@
     <t xml:space="preserve">Stayed here yesterday. I had a great experience. Folks up front were nice and rooms were clean. Reasonably priced too! Seems reviews are mixed. Dont understand. I thought it was great place for the price.  </t>
   </si>
   <si>
+    <t>Don M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r302714478-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1285,6 +1468,9 @@
     <t>I stayed for 2 days on friday and overall I have enjoyed my stay, it was better than I had expected. The beds were soft, the comforter was decently thick, the water pressure in the shower was nice, they have many tv channels including HD channels(over 900 channels), the staff was friendly. Although its probably best to check-in in the mornings or around 12pm to avoid lines, the staff that work in the morning are not that smart....(but he is friendly and nice), it took him 5+ tries to program the tv remote and I gave up on trying to get it fixed, its no big issue to just get up from the bed to change the channels/vol on the tv, but its a bit of a inconvenience(its fine because a different guy in the afternoon came and fixed it in less than 2 minutes!). There is also a nearby gas station to get drinks and snacks, and a whataburger and taco bell near by for food, this area is located in a nice area and its close to six flags as well! which is the main reason why we booked here.More</t>
   </si>
   <si>
+    <t>Akhil D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r301087606-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1300,6 +1486,9 @@
     <t xml:space="preserve">This hotel was recently updated, comfortable and clean beds . The shower was amazing with great water pressure and temperature. I didn't hear any noise in the nights which is a huge plus for me. Perfect location for Six-flags and AT&amp;T stadium </t>
   </si>
   <si>
+    <t>Alex B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r300305786-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1315,6 +1504,9 @@
     <t xml:space="preserve">The employee at the font desk try to do everything for you to have a nice stay. The rooms are well kept and clean. Not too much noise and slept wonderful. Defiantly will go back when there's a game going on. Better then other super 8 I have stayed at before </t>
   </si>
   <si>
+    <t>HighwayHeavy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r291485882-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1333,6 +1525,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>sonyaf173</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r288305320-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1348,6 +1543,9 @@
     <t xml:space="preserve">I would have given a two but the front desk was nice and willing to help. The rooms had a musty smell and the breakfast was slim to nothing. The outside property was clean and well maintenance. The comforters were very thin. The pool was nice. Other guess outside cursing and load music could not sleep the first night.  </t>
   </si>
   <si>
+    <t>dkmcd55</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r286981483-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1372,6 +1570,9 @@
     <t>The room was clean but when taking a shower the water pressure was not there. Also the shower drain was very slow thus taking a shower with water around your ankles. The A/C ran all the time but if you turned it off then the room would get too hot. My room key card only worked the first day on a two day stay and had to wait in a line to get my card re keyed so I could get in my room. I was unable to use my laptop on their internet since it could not obtain a code to get on the internet with. I had to use my Ipad to use the internet. When I was on it was very slow.More</t>
   </si>
   <si>
+    <t>Adam E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r285787942-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1390,6 +1591,9 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>Brandon C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r281311339-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1405,6 +1609,9 @@
     <t>I come here every weekend, the place is great and safe. The front desk clerk that works in the afternoons is probably the best one, everything always works in the rooms. They had soo many channels, around 1200+. Healthy breakfast start for the day.</t>
   </si>
   <si>
+    <t>100tinal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r279323245-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1420,6 +1627,9 @@
     <t>Only problems were the microwave didn't work and the air conditioning knob was broken, keeping it on high cold. I didn't need the microwave and I slept in a sweater. I told the staff upon check out that both were broken.</t>
   </si>
   <si>
+    <t>Jenkins J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r274274365-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1438,6 +1648,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>Cathy G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r271669032-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1453,6 +1666,9 @@
     <t xml:space="preserve">Good location for what we were here for. Price not too bad ... clean rooms, comfortable beds, mostly friendly staff, awesome front desk service - even before we arrived! </t>
   </si>
   <si>
+    <t>Becky A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r268396386-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1474,6 +1690,9 @@
     <t>What started out as a not so great stay was turned around by Mike. Our original room was on the noisy side of the hotel (24 hour gas station and hwy), along with a very noisy neighbor who checked in a 4am. We were there to work, and the noise wasn't conducive of a good night's sleep. I spoke to Mike in the morning and he graciously moved us to the other side of the hotel, even though it was sold out for the upcoming busy weekend. Can't say enough about the hospitality of the folks working there. From cleaning staff to front desk staff, all were gracious, polite, and seemed genuinely caring. The hotel and rooms are in need of some modernization, and you can tell Mike is actively working on this. Would definitely stay there again.  More</t>
   </si>
   <si>
+    <t>Tarsha H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r265846908-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1492,6 +1711,9 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>Manasa Reddy B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r262188564-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1507,6 +1729,9 @@
     <t>As soon as I enter room in two beds, freshness and neatness is what I saw.Carpet is really nice and also has flat screens with many channels.Only issue is with wifi connection for 20 min in evening.Managment responds quickly and resolved.They are cool and helpfull</t>
   </si>
   <si>
+    <t>lonwolf1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r262085141-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1519,6 +1744,9 @@
     <t>So I use to come here some years ago now I decided to come back and they have upgraded a lot.The staff is very welcoming whatever I needed they got it for me other places charge way to much and are rude here I get a good rate,breakfast and a nice staff and it close to fast food and a gas station if I need anything</t>
   </si>
   <si>
+    <t>Kara C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r259391045-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1534,6 +1762,9 @@
     <t>The front desk has great customer service and were very friendly. The breakfast was good (cereal, fruit, waffles, cinn rolls, toast, juice, ect). The room was good and clean. Had a fridge and microwave. Linens were good as well and smelled and looked clean too. The room had complete cable which was great! Front desk said they are continuing to make improvements. We will definitely stay here again! Perfect for a family stay :) very close to six flags!Thank you so very much!!</t>
   </si>
   <si>
+    <t>gibberish9</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r259100374-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1549,6 +1780,9 @@
     <t>I like d staying here it's  clean and friendly I stay here every time I'm in town  it's close to everything management is real friendly and kind very helpful.I like staying Here the staff go all out to do extra  things  like if you need extra money towels  or shampoo  things like that.</t>
   </si>
   <si>
+    <t>nancybom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r256378020-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1573,6 +1807,9 @@
     <t>It was clean but the a little noisy since a game was in town. Price and location make this little hotel a a reasonable value for me when I am in town visiting family. The breakfast was limited but then again for the price I didn't mind.          More</t>
   </si>
   <si>
+    <t>Lori M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r254040673-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1594,6 +1831,9 @@
     <t>Stayed here for a big game at AT&amp;T stadium. Hotels were booked up in the area so ended up here. When we first got into the room the smoke detector kept beeping &amp; we had to call the front desk to bring a new battery. The night employee was very nice about it! The room was dated, the air conditioner/heater unit would not work properly so we were either roasting or freezing. There was a full room service menu but when we asked, they said there's no room service.....so why's there a menu in the room? The bed had only two pillows and when we requested more, they said every room was booked &amp; they had only one left. The road noise is loud and the maid service never cleaned, just left extra towels. I would never stay here again. But I did want to point out the night &amp; morning employees were not only helpful but were fun and cheerful to talk to. Great service but the owners need to remodel &amp; not be so greedy. The place is a dump for $150 a night!More</t>
   </si>
   <si>
+    <t>Ananth K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r252326408-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1609,6 +1849,9 @@
     <t xml:space="preserve">Been here many times, everytime when I enter I feel rooms were very fresh with clean beds satisying all needs and facilities. Even close to six flags and AT&amp;T stadium. If anyone looking for good motel with a resonable price,this is the one ! </t>
   </si>
   <si>
+    <t>rsadams</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r251333864-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1624,6 +1867,9 @@
     <t xml:space="preserve">The room was very clean, parking lot clear, and front desk friendly. Nice basic motel room. Free WiFi a plus </t>
   </si>
   <si>
+    <t>jefferyb99</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r245644256-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1651,6 +1897,9 @@
     <t>The T.V. in my room did not work at all, the manager attempted 3 times to correct this problem, however there was not anything he could do to correct the problem.More</t>
   </si>
   <si>
+    <t>Jerry M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r242553960-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1678,6 +1927,9 @@
     <t>Convenient, Convenient location for usThe Ice machines are broken and appear to have been for some time.Had to purchase ice More</t>
   </si>
   <si>
+    <t>535robertj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r242279354-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1699,6 +1951,9 @@
     <t>We booked a non-smoking room with queen beds. While the room was labeled to be non-smoking it had a very strong odor of smoke within the room. We did not complain due to not wanting to cause a commotion or having to relocate as we tired but it was disappointing.More</t>
   </si>
   <si>
+    <t>tarpon89</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r236082612-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1726,6 +1981,9 @@
     <t>The rooms were ok but I noticed that the blankets were stained and had holes in them. Do us all a favor and get the stains out. The area is more industrial so you hear trains go by and some of the traffic. When we kept our A/C on, you don't hear much of those things except for the clanking of the A/C. To be honest with you all we wanted was a cheap place to sleep. We were out of our room from 8am to 9pm. If I were to stay in the room more often I probably wouldn't stay here with my family. If I were with my friends or just needed a place to sleep then it is fine.More</t>
   </si>
   <si>
+    <t>Charliac</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r233473026-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1744,6 +2002,9 @@
     <t>When i arrived I was pleased that the staff was very friendly. They also let me check in early . Rooms were clean &amp; kinda modern good tv channels . For 65$ it's really not bad . Comes with microwave &amp; fridge &amp; gives u options on smoking rooms which is something I perfer. I would stay here again if trying to save money . You won't see any bugs or be afraid to sleep in the pillows .More</t>
   </si>
   <si>
+    <t>Rickthegrim</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r230771365-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1768,6 +2029,9 @@
     <t>We arrived at the hotel and checked into the room, the AC was barely working and there was a 1 inch gap under the front door,also the room smelled like it was never cleaned. We checked out about 1/1-2 hours later and will never attend a Super Eight again.. Was very disappointing. Front desk person was very friendly.More</t>
   </si>
   <si>
+    <t>Thomas R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r225805116-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1786,6 +2050,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>Rebecca D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r225473119-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1804,6 +2071,9 @@
     <t>The room was clean and has two queen beds non smoking. Serves it's purpose for our 3 night stay. BUT....The water in the bath tub doesn't drain and with a big family washing, the water level got up above our ankles. The shower barely spits out water and seem to take forever just to wash shampoo out. Our lounge chair's arm comes off and is full of nails which isn't good for my 4yr old. The air conditioning unit knobs fell off. And the continental breakfast well don't go starving cause it won't serve it's purpose. It has coffee and juice, bread, fruit, frozen waffles, and frozen yogurt. Needless to say we got coffee and went to Denny's. More</t>
   </si>
   <si>
+    <t>MikeEdieD</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r222784691-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1819,6 +2089,9 @@
     <t>If you are going to a ball game, you can't beat this place for location, price and comfort. The staff was very accommodating and friendly. Only downside was that I had to get ice from the front desk, which was no big deal. Has two rooms, two nights on a weekend and paid $80 a night, in Arlington less than 10 mins from the Ball Park, Cowboy Stadium and 6 Flags. No brainier for me when I come back in the spring.</t>
   </si>
   <si>
+    <t>corlatta</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r219537529-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1834,6 +2107,9 @@
     <t xml:space="preserve">Overall, this is the perfect place to stay, away from home. Everyone was very caring and understanding.went the extra mile to accommodate the stay. I will recommend this location, to family and friends when needing a temporary stay, or just even traveling. </t>
   </si>
   <si>
+    <t>Harshal M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r217478361-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1852,6 +2128,9 @@
     <t>July 2014</t>
   </si>
   <si>
+    <t>Chris T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r217374158-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1864,6 +2143,9 @@
     <t>Let's first start with not enough towels for having jacuzzi in the room. Jacuzzi did not work. A/C didn't work properly and also leaked water on the floor. The water pressure was low taking shower. Not enough pillows on the bed. The decor was out dated</t>
   </si>
   <si>
+    <t>Thomas K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r211285776-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1882,6 +2164,9 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>collinsc2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r211013578-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1897,6 +2182,9 @@
     <t>this a great property and nice staff, its a up and coming hotel and its a great place to stay. needs more breakfast opinions maybe hot stuff but overall good. the rooms are very clean and management is very kind</t>
   </si>
   <si>
+    <t>Beth L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r210960034-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1912,6 +2200,9 @@
     <t>I don't get all the bad reviews. Im staying here right now and its great. I paid practically nothing for the place and the room is big and clean. The flat screen TV has a ton of channels. The WIFI is fast and free. The room has a big king size bed that is comfy the pillows are big but a bit mushy for my taste. The bathroom is very clean the fridge and microwave were spotless too. The pool is always very clean and i am spending WAY too many hours doing nothing and laying there. The maids and front desk people just do their jobs and offer help when you need it. The breakfast they give away is pretty lame but i mean you are staying at very cheap hotel. i come from NY and am very very happy with my stay here and would def stay here again if i was in the area. Only thing i would upgrade is the breakfast and there is no ice machine. You have to go to the Front Desk and ask for it. The AC worked great and i was very very comfortable my entire stay. Am going to Dallas and i hope my hotel there is just as nice.More</t>
   </si>
   <si>
+    <t>Timothy T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r200754863-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1930,6 +2221,9 @@
     <t>May 2013</t>
   </si>
   <si>
+    <t>Miguel C F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r200392349-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1948,6 +2242,9 @@
     <t>April 2014</t>
   </si>
   <si>
+    <t>Susan G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r200286288-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1960,6 +2257,9 @@
     <t>Front desk employee was very nice and knowledgeable. This property is located near plenty of nice restaurants and right down the road from the six flags theme park. I will stay here again and will recommend this to friends and family.</t>
   </si>
   <si>
+    <t>1ebprincess</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r196473862-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1978,6 +2278,9 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>Randall P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r196208789-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2005,6 +2308,9 @@
     <t>The price went up when we got there. There were spiders in our room and when we asked for another room they said they had no bugs and no other rooms. The beds were terrible, one was so broken down on one side it was barely useable. Again, "they had no more rooms".The shower had mold in it. There was no ice machine. There was a rukus in the parking lot at 3 in the morning. Sounded like arguing and fighting. Each time I stay at a Super 8 the experience gets worse. I'm really not sure I will stay at a Super 8 any more. Pitiful. More</t>
   </si>
   <si>
+    <t>Ian P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r194774289-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2020,6 +2326,9 @@
     <t>Rooms are nice and clean,TVs are outdated but was told new ones on the way,Quiet area.Some maintenance issues but nothing bad.Fast food and gas station adjacent to property.Desk personnel were very friendly and helpful.</t>
   </si>
   <si>
+    <t>mskristin1209</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r191912994-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2038,6 +2347,9 @@
     <t>January 2014</t>
   </si>
   <si>
+    <t>Gary H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r189988077-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2065,6 +2377,9 @@
     <t>The front door was damaged and did not lock correctly.The secondary scruity lock on the door was not secure where it connected to the door jamb.There was spaltter on the inside of the front door and on literature on the desk.More</t>
   </si>
   <si>
+    <t>Jay R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r189927408-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2083,6 +2398,9 @@
     <t>Stayed here with buddies for Cotton Bowl 2014. This hotel is ok for the fellas but would not reccommend bringing the ladies to this one. lots of updates needed, probably could use a complete overhaul. Ok for a place to crash, great proximity to Jerrys world, but average at best. More</t>
   </si>
   <si>
+    <t>Baltazar T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r186439554-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2101,6 +2419,9 @@
     <t>November 2013</t>
   </si>
   <si>
+    <t>dvschnabel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r186005481-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2116,6 +2437,9 @@
     <t>I booked this hotel because of the price, it also turned out to be a good value. The room was nice and clean and it was close to a lot of good restaurants. the staff was very friendly and efficient. I'd stay there again.</t>
   </si>
   <si>
+    <t>Patrick O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r186005306-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2128,6 +2452,9 @@
     <t>I stay for 4 nights at the Super 8 in Arlington SW was a pleasant one, the maid were nice and the room was very nice and clean.  The desk clerk was very helpful. Lot of good eating places nearby. Was there for a Cowboys game. Great time.</t>
   </si>
   <si>
+    <t>Anonymous A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r177458855-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2146,6 +2473,9 @@
     <t>September 2013</t>
   </si>
   <si>
+    <t>Tom P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r177177981-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2155,6 +2485,9 @@
     <t>09/14/2013</t>
   </si>
   <si>
+    <t>sirapplesandoranges</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r176891843-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2170,6 +2503,9 @@
     <t>Came up for a small business meeting. I found a friendly staff and quickly got a decently sized room. The room was clean and the bed was great. The location is excellent. There is so much around that location like the cowboys stadium and a night life. For that price per night, it was more than worth it.</t>
   </si>
   <si>
+    <t>Cecil M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r171680436-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2188,6 +2524,9 @@
     <t>August 2013</t>
   </si>
   <si>
+    <t>Wanda R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r170057225-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2206,6 +2545,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>Jake G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r168191063-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2221,6 +2563,9 @@
     <t xml:space="preserve">We had a really bad experience with the Arlington, Tx Super 8. The staff was not helpful and not very friendly. We had a room with no fire detector the cords were just hanging from the ceiling. The room was supposed to be non smoking and had clearly been smoked in, the room was dirty there was a straw laying in the floor by the bed, and mold on the shower curtain. One of our rooms had trouble with the air working properly. </t>
   </si>
   <si>
+    <t>Dolores V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r160819675-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2230,6 +2575,9 @@
     <t>05/15/2013</t>
   </si>
   <si>
+    <t>Christopher W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r159847518-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2245,6 +2593,9 @@
     <t>The room we were givin would not lock. You could just pushe the door open with no key. The phone didnt not work. Then about 2am there was a banging on the wall from the room next to use that went on for 2 hours. I finally beat on the wall to get them to stop. Front desk did nothing for us. So I would not saty here its not a very good place.</t>
   </si>
   <si>
+    <t>Linda J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r153816598-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2261,6 +2612,9 @@
   </si>
   <si>
     <t>March 2013</t>
+  </si>
+  <si>
+    <t>lorileon05</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r146874524-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
@@ -2312,6 +2666,9 @@
 I...On Friday, November 30,2012 I booked a room for Sat (12/1) and Sunday (12/2) at Super 8 - Arlington SW on 2712 E Abram St..Upon arrival on Saturday 12/1 around 530 pm. we arrived for check in. Upon checking in I asked if by chance they had any additional rooms, I was told they did. I asked if we could switch to a smoking with 2 beds (same cost). I was immediately told no because I was not a walk in. I asked why that should matter, and I was told, I was already receiving the room at a 50.00 a night discount since I went through Expedia..This confused me, because at no time did I go through Expedia, but since she was telling me that I was saving 50.00 a night, I left it alone. I was handed 2 keys for room #111. I got in the car and we were off to our room.Upon arrival at the room: There was huge wet white stains on the floor. There was a large mirror was on the floor rather than the wall The tv did not work 1 set of lights did not work The desk leg was broken Dirty glove on the floor No microwave plate Trash in the drawer Walls were very dirty Bathroom was gross - inside of the bathroom door, it was painted 2 different colors (also, old &amp; stained)Hair on bed I called immediately to the front desk and was told maintenance would be down in 20-30 minutes. 1 1/2 hours later he showed up. He put the mirror back up and said that should have been reported by housekeeping. He got us a microwave plate, and switched the tv socket. I went out front for a clean blanket, (new attendant at desk). He had one blanket, this also had hair on it. He said he was sorry there were no more. Once again, I was asked my room #. After I told him 111 he looked it up and said oh, you are through Expedia. I will tell my manager and maybe you can get some money back. We ended up going to the local Walmart and purchasing blankets and pillows just so we had something definitely clean to sleep on.The sheets had small burn holes in them. Saturday night at 300 am in the morning, there were 2 woman (dressed very perogitively) banging on our door looking for Ellen. My husband told them to go away there was nobody there by that name. Then again at 700 am the same morning there was a very tall male banging on the door when my husband opened by dead bolt, he said he was there for a phone charge because his phone was dead. My husband told him to leave we did not have a phone charger. The guy than said, oh he must have the wrong room.The description of the room states there is security - there is NO SECURITY. The website states $53.00 a night. I paid $67.15 one night and $71.40 the other night. I don't see that I got a discount, it looks to me as I paid more than $53.00. There is no way I saved $50.00 a night. They should have been paying me to sleep in that filth and unsafe room that we were in.Thank God I took a shower right before we left home, because there would have been no way that I would shower in that bathroom.Please understand, we are not picky people, this was just REALLY BAD!!!!More</t>
   </si>
   <si>
+    <t>Kim L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r146717947-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2330,6 +2687,9 @@
     <t>This hotel is not up to date old and run down.  The towels had stains like blood &amp; the sheets had yellow stains. The blanket on the bed had burn marks and holes.  Reported this to the front desk asked her to have it changed before we got back from our event.  Stopped to be sure it was done &amp; it was not had to change the bedding myself.  Hair was in the bathtub and had a old smell in the room.  Tissue was stuck in the peephole.  The A/C sounded like a old car on it's last start up about to go out.  Called to see if we could move rooms was told they was booked.  Happy we did not have to stay long!More</t>
   </si>
   <si>
+    <t>DELORES C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r145362858-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2348,6 +2708,9 @@
     <t>November 2012</t>
   </si>
   <si>
+    <t>daddnysangel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r58318343-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2367,6 +2730,9 @@
   </si>
   <si>
     <t>5 sperate families were all together on this trip.When we first checked in everything seemed okay... Early the next monring we hard shooting outside our room. We packed up and went to Six Flags for the day. I brought my digital camera on the trip with is. Well due to the fact we were going to the water park I left it behind in the hotel room. Room services stole my camera. As well as went through my wallet and took the $27.00 that I had in there. I contact management immaedialetly. They told me that someone was let into my room by mistake while we were gone and they must have stolen my camera, not their roomservice lady cause she wouldn't do a things like that.  I contacted the manager who was not on duty that day and he told me that he would be sending me something throw the mail. A month later I contact Super 8 directly and left a message with my "case manager" Tara Infresome. I've have left her message after message and nothing no call back no nothing.No not stay at this Motel don't waste your money nor time stopping in. Management doesn't care nor does the chain line.More</t>
+  </si>
+  <si>
+    <t>jadnyl</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240522-r5493803-Super_8_Arlington_Near_AT_T_Stadium-Arlington_Texas.html</t>
@@ -2889,43 +3255,47 @@
       <c r="A2" t="n">
         <v>37881</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>178388</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2939,50 +3309,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>37881</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>178389</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P3" t="n">
         <v>3</v>
@@ -3006,50 +3380,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>37881</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>178390</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P4" t="n">
         <v>4</v>
@@ -3073,50 +3451,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>37881</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>178391</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
@@ -3140,50 +3522,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>37881</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>178392</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
         <v>74</v>
       </c>
-      <c r="K6" t="s">
-        <v>75</v>
-      </c>
-      <c r="L6" t="s">
-        <v>76</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4</v>
-      </c>
-      <c r="N6" t="s">
-        <v>70</v>
-      </c>
       <c r="O6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
@@ -3203,50 +3589,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>37881</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>178393</v>
+      </c>
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="J7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="K7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P7" t="n">
         <v>4</v>
@@ -3270,50 +3660,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>37881</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>3959</v>
+      </c>
+      <c r="C8" t="s">
+        <v>88</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="J8" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="K8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="L8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="O8" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -3333,50 +3727,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>37881</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>1163</v>
+      </c>
+      <c r="C9" t="s">
+        <v>95</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="J9" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="K9" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="L9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="O9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3390,50 +3788,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>37881</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>178394</v>
+      </c>
+      <c r="C10" t="s">
+        <v>103</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="J10" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="K10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="L10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="O10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P10" t="n">
         <v>4</v>
@@ -3457,50 +3859,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>37881</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>178395</v>
+      </c>
+      <c r="C11" t="s">
+        <v>109</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="J11" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="K11" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="L11" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="O11" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P11" t="n">
         <v>3</v>
@@ -3524,50 +3930,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>37881</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>178396</v>
+      </c>
+      <c r="C12" t="s">
+        <v>116</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="J12" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="K12" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="L12" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="O12" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -3591,50 +4001,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>37881</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>178397</v>
+      </c>
+      <c r="C13" t="s">
+        <v>123</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="J13" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="K13" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="L13" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="O13" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P13" t="n">
         <v>4</v>
@@ -3658,50 +4072,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>37881</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>178398</v>
+      </c>
+      <c r="C14" t="s">
+        <v>130</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="J14" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="K14" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="L14" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="O14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
@@ -3721,50 +4139,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>37881</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>178399</v>
+      </c>
+      <c r="C15" t="s">
+        <v>137</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="J15" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="K15" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="L15" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="O15" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P15" t="n">
         <v>1</v>
@@ -3788,50 +4210,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>37881</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>178400</v>
+      </c>
+      <c r="C16" t="s">
+        <v>144</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="J16" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="K16" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="L16" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="O16" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P16" t="n">
         <v>4</v>
@@ -3855,50 +4281,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>37881</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>178401</v>
+      </c>
+      <c r="C17" t="s">
+        <v>150</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
+        <v>152</v>
+      </c>
+      <c r="J17" t="s">
+        <v>153</v>
+      </c>
+      <c r="K17" t="s">
+        <v>154</v>
+      </c>
+      <c r="L17" t="s">
+        <v>155</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
         <v>136</v>
       </c>
-      <c r="J17" t="s">
-        <v>137</v>
-      </c>
-      <c r="K17" t="s">
-        <v>138</v>
-      </c>
-      <c r="L17" t="s">
-        <v>139</v>
-      </c>
-      <c r="M17" t="n">
-        <v>5</v>
-      </c>
-      <c r="N17" t="s">
-        <v>123</v>
-      </c>
       <c r="O17" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -3922,50 +4352,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>37881</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>178402</v>
+      </c>
+      <c r="C18" t="s">
+        <v>157</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="J18" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="K18" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="L18" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="O18" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P18" t="n">
         <v>4</v>
@@ -3989,50 +4423,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>37881</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>178403</v>
+      </c>
+      <c r="C19" t="s">
+        <v>163</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="J19" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="K19" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="L19" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="O19" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P19" t="n">
         <v>4</v>
@@ -4056,50 +4494,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>37881</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>178404</v>
+      </c>
+      <c r="C20" t="s">
+        <v>170</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="J20" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="K20" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="L20" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="O20" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -4113,50 +4555,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>37881</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>178405</v>
+      </c>
+      <c r="C21" t="s">
+        <v>177</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="J21" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="K21" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="L21" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="O21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -4174,50 +4620,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>37881</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>178406</v>
+      </c>
+      <c r="C22" t="s">
+        <v>183</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="J22" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="K22" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="L22" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="O22" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P22" t="n">
         <v>4</v>
@@ -4241,50 +4691,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>37881</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>178407</v>
+      </c>
+      <c r="C23" t="s">
+        <v>191</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="J23" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="K23" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="L23" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="O23" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -4308,50 +4762,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>37881</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>178408</v>
+      </c>
+      <c r="C24" t="s">
+        <v>197</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="J24" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="K24" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="L24" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="O24" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P24" t="n">
         <v>3</v>
@@ -4375,50 +4833,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>37881</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>178409</v>
+      </c>
+      <c r="C25" t="s">
+        <v>204</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="J25" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="K25" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="L25" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="O25" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="P25" t="n">
         <v>4</v>
@@ -4442,50 +4904,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>37881</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>178410</v>
+      </c>
+      <c r="C26" t="s">
+        <v>210</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="J26" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="K26" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="L26" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="M26" t="n">
         <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="O26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="n">
@@ -4503,56 +4969,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="X26" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="Y26" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>37881</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>178411</v>
+      </c>
+      <c r="C27" t="s">
+        <v>220</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="J27" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="K27" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="L27" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="O27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -4572,50 +5042,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>37881</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>10108</v>
+      </c>
+      <c r="C28" t="s">
+        <v>226</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="J28" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="K28" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="L28" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="O28" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P28" t="n">
         <v>1</v>
@@ -4635,50 +5109,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>37881</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>178412</v>
+      </c>
+      <c r="C29" t="s">
+        <v>232</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="J29" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="K29" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="L29" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="O29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P29" t="n">
         <v>4</v>
@@ -4702,50 +5180,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>37881</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>178413</v>
+      </c>
+      <c r="C30" t="s">
+        <v>239</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="J30" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="K30" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="L30" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="M30" t="n">
         <v>2</v>
       </c>
       <c r="N30" t="s">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="O30" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="P30" t="n">
         <v>3</v>
@@ -4769,50 +5251,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>37881</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>178414</v>
+      </c>
+      <c r="C31" t="s">
+        <v>246</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="J31" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="K31" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="L31" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="O31" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P31" t="n">
         <v>4</v>
@@ -4836,50 +5322,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>37881</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>178415</v>
+      </c>
+      <c r="C32" t="s">
+        <v>252</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="J32" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="K32" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="L32" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="O32" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4893,50 +5383,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>37881</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>178416</v>
+      </c>
+      <c r="C33" t="s">
+        <v>259</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="J33" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="K33" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="L33" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="M33" t="n">
         <v>2</v>
       </c>
       <c r="N33" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="O33" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P33" t="n">
         <v>2</v>
@@ -4958,56 +5452,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="X33" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="Y33" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>37881</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>178417</v>
+      </c>
+      <c r="C34" t="s">
+        <v>268</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>236</v>
+        <v>269</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>237</v>
+        <v>270</v>
       </c>
       <c r="J34" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="K34" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="L34" t="s">
-        <v>239</v>
+        <v>272</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="O34" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="n">
@@ -5025,56 +5523,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="X34" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="Y34" t="s">
-        <v>241</v>
+        <v>274</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>37881</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>178418</v>
+      </c>
+      <c r="C35" t="s">
+        <v>275</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>243</v>
+        <v>277</v>
       </c>
       <c r="J35" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="K35" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="L35" t="s">
-        <v>246</v>
+        <v>280</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>247</v>
+        <v>281</v>
       </c>
       <c r="O35" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -5086,56 +5588,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="X35" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="Y35" t="s">
-        <v>250</v>
+        <v>284</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>37881</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>178419</v>
+      </c>
+      <c r="C36" t="s">
+        <v>285</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>251</v>
+        <v>286</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>252</v>
+        <v>287</v>
       </c>
       <c r="J36" t="s">
-        <v>253</v>
+        <v>288</v>
       </c>
       <c r="K36" t="s">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="L36" t="s">
-        <v>255</v>
+        <v>290</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="O36" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -5147,56 +5653,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="X36" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="Y36" t="s">
-        <v>257</v>
+        <v>292</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>37881</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>178420</v>
+      </c>
+      <c r="C37" t="s">
+        <v>293</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>258</v>
+        <v>294</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>259</v>
+        <v>295</v>
       </c>
       <c r="J37" t="s">
-        <v>260</v>
+        <v>296</v>
       </c>
       <c r="K37" t="s">
-        <v>261</v>
+        <v>297</v>
       </c>
       <c r="L37" t="s">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c r="M37" t="n">
         <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="O37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P37" t="n">
         <v>2</v>
@@ -5220,50 +5730,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>262</v>
+        <v>298</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>37881</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>178421</v>
+      </c>
+      <c r="C38" t="s">
+        <v>299</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="J38" t="s">
-        <v>265</v>
+        <v>302</v>
       </c>
       <c r="K38" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="L38" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="M38" t="n">
         <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>247</v>
+        <v>281</v>
       </c>
       <c r="O38" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P38" t="n">
         <v>3</v>
@@ -5287,50 +5801,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>37881</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>178422</v>
+      </c>
+      <c r="C39" t="s">
+        <v>305</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>268</v>
+        <v>306</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="J39" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="K39" t="s">
-        <v>271</v>
+        <v>309</v>
       </c>
       <c r="L39" t="s">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="M39" t="n">
         <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>247</v>
+        <v>281</v>
       </c>
       <c r="O39" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P39" t="n">
         <v>3</v>
@@ -5354,50 +5872,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>272</v>
+        <v>310</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>37881</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>178423</v>
+      </c>
+      <c r="C40" t="s">
+        <v>311</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="J40" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="K40" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="L40" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>247</v>
+        <v>281</v>
       </c>
       <c r="O40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -5421,50 +5943,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>37881</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>178424</v>
+      </c>
+      <c r="C41" t="s">
+        <v>317</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>278</v>
+        <v>318</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>279</v>
+        <v>319</v>
       </c>
       <c r="J41" t="s">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="K41" t="s">
-        <v>281</v>
+        <v>321</v>
       </c>
       <c r="L41" t="s">
-        <v>282</v>
+        <v>322</v>
       </c>
       <c r="M41" t="n">
         <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>283</v>
+        <v>323</v>
       </c>
       <c r="O41" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -5478,35 +6004,39 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>282</v>
+        <v>322</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>37881</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>178425</v>
+      </c>
+      <c r="C42" t="s">
+        <v>324</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>284</v>
+        <v>325</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>285</v>
+        <v>326</v>
       </c>
       <c r="J42" t="s">
-        <v>286</v>
+        <v>327</v>
       </c>
       <c r="K42" t="s"/>
       <c r="L42" t="s"/>
@@ -5514,10 +6044,10 @@
         <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>283</v>
+        <v>323</v>
       </c>
       <c r="O42" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P42" t="n">
         <v>4</v>
@@ -5538,51 +6068,52 @@
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
-      <c r="Y42" t="s"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>37881</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>178426</v>
+      </c>
+      <c r="C43" t="s">
+        <v>328</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>287</v>
+        <v>329</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>288</v>
+        <v>330</v>
       </c>
       <c r="J43" t="s">
-        <v>289</v>
+        <v>331</v>
       </c>
       <c r="K43" t="s">
-        <v>290</v>
+        <v>332</v>
       </c>
       <c r="L43" t="s">
-        <v>291</v>
+        <v>333</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="O43" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -5606,50 +6137,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>291</v>
+        <v>333</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>37881</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>178427</v>
+      </c>
+      <c r="C44" t="s">
+        <v>334</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>292</v>
+        <v>335</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>293</v>
+        <v>336</v>
       </c>
       <c r="J44" t="s">
-        <v>294</v>
+        <v>337</v>
       </c>
       <c r="K44" t="s">
-        <v>295</v>
+        <v>338</v>
       </c>
       <c r="L44" t="s">
-        <v>296</v>
+        <v>339</v>
       </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="O44" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P44" t="n">
         <v>2</v>
@@ -5671,56 +6206,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>297</v>
+        <v>340</v>
       </c>
       <c r="X44" t="s">
-        <v>298</v>
+        <v>341</v>
       </c>
       <c r="Y44" t="s">
-        <v>299</v>
+        <v>342</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>37881</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>178428</v>
+      </c>
+      <c r="C45" t="s">
+        <v>343</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>300</v>
+        <v>344</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="J45" t="s">
-        <v>302</v>
+        <v>346</v>
       </c>
       <c r="K45" t="s">
-        <v>303</v>
+        <v>347</v>
       </c>
       <c r="L45" t="s">
-        <v>304</v>
+        <v>348</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>305</v>
+        <v>349</v>
       </c>
       <c r="O45" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="n">
@@ -5740,50 +6279,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>306</v>
+        <v>350</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>37881</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>178429</v>
+      </c>
+      <c r="C46" t="s">
+        <v>351</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="J46" t="s">
-        <v>302</v>
+        <v>346</v>
       </c>
       <c r="K46" t="s">
-        <v>309</v>
+        <v>354</v>
       </c>
       <c r="L46" t="s">
-        <v>310</v>
+        <v>355</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>305</v>
+        <v>349</v>
       </c>
       <c r="O46" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P46" t="n">
         <v>1</v>
@@ -5805,56 +6348,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>311</v>
+        <v>356</v>
       </c>
       <c r="X46" t="s">
-        <v>312</v>
+        <v>357</v>
       </c>
       <c r="Y46" t="s">
-        <v>313</v>
+        <v>358</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>37881</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>178430</v>
+      </c>
+      <c r="C47" t="s">
+        <v>359</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>314</v>
+        <v>360</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>315</v>
+        <v>361</v>
       </c>
       <c r="J47" t="s">
-        <v>316</v>
+        <v>362</v>
       </c>
       <c r="K47" t="s">
-        <v>317</v>
+        <v>363</v>
       </c>
       <c r="L47" t="s">
-        <v>318</v>
+        <v>364</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>319</v>
+        <v>365</v>
       </c>
       <c r="O47" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -5868,50 +6415,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>318</v>
+        <v>364</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>37881</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>178431</v>
+      </c>
+      <c r="C48" t="s">
+        <v>366</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>320</v>
+        <v>367</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>321</v>
+        <v>368</v>
       </c>
       <c r="J48" t="s">
-        <v>316</v>
+        <v>362</v>
       </c>
       <c r="K48" t="s">
-        <v>322</v>
+        <v>369</v>
       </c>
       <c r="L48" t="s">
-        <v>323</v>
+        <v>370</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>319</v>
+        <v>365</v>
       </c>
       <c r="O48" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -5925,50 +6476,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>323</v>
+        <v>370</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>37881</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>178432</v>
+      </c>
+      <c r="C49" t="s">
+        <v>371</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>324</v>
+        <v>372</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>325</v>
+        <v>373</v>
       </c>
       <c r="J49" t="s">
-        <v>326</v>
+        <v>374</v>
       </c>
       <c r="K49" t="s">
-        <v>327</v>
+        <v>375</v>
       </c>
       <c r="L49" t="s">
-        <v>328</v>
+        <v>376</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>329</v>
+        <v>377</v>
       </c>
       <c r="O49" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -5980,56 +6535,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>330</v>
+        <v>378</v>
       </c>
       <c r="X49" t="s">
-        <v>331</v>
+        <v>379</v>
       </c>
       <c r="Y49" t="s">
-        <v>332</v>
+        <v>380</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>37881</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>178433</v>
+      </c>
+      <c r="C50" t="s">
+        <v>381</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>333</v>
+        <v>382</v>
       </c>
       <c r="G50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>334</v>
+        <v>383</v>
       </c>
       <c r="J50" t="s">
-        <v>335</v>
+        <v>384</v>
       </c>
       <c r="K50" t="s">
-        <v>336</v>
+        <v>385</v>
       </c>
       <c r="L50" t="s">
-        <v>337</v>
+        <v>386</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>329</v>
+        <v>377</v>
       </c>
       <c r="O50" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -6051,56 +6610,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>338</v>
+        <v>387</v>
       </c>
       <c r="X50" t="s">
-        <v>339</v>
+        <v>388</v>
       </c>
       <c r="Y50" t="s">
-        <v>340</v>
+        <v>389</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>37881</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>178434</v>
+      </c>
+      <c r="C51" t="s">
+        <v>390</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>341</v>
+        <v>391</v>
       </c>
       <c r="G51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>342</v>
+        <v>392</v>
       </c>
       <c r="J51" t="s">
-        <v>343</v>
+        <v>393</v>
       </c>
       <c r="K51" t="s">
-        <v>344</v>
+        <v>394</v>
       </c>
       <c r="L51" t="s">
-        <v>345</v>
+        <v>395</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>329</v>
+        <v>377</v>
       </c>
       <c r="O51" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -6112,56 +6675,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>346</v>
+        <v>396</v>
       </c>
       <c r="X51" t="s">
-        <v>339</v>
+        <v>388</v>
       </c>
       <c r="Y51" t="s">
-        <v>347</v>
+        <v>397</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>37881</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>178435</v>
+      </c>
+      <c r="C52" t="s">
+        <v>398</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>348</v>
+        <v>399</v>
       </c>
       <c r="G52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>349</v>
+        <v>400</v>
       </c>
       <c r="J52" t="s">
-        <v>350</v>
+        <v>401</v>
       </c>
       <c r="K52" t="s">
-        <v>351</v>
+        <v>402</v>
       </c>
       <c r="L52" t="s">
-        <v>352</v>
+        <v>403</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>353</v>
+        <v>404</v>
       </c>
       <c r="O52" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="P52" t="n">
         <v>4</v>
@@ -6183,56 +6750,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>354</v>
+        <v>405</v>
       </c>
       <c r="X52" t="s">
-        <v>355</v>
+        <v>406</v>
       </c>
       <c r="Y52" t="s">
-        <v>356</v>
+        <v>407</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>37881</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>33920</v>
+      </c>
+      <c r="C53" t="s">
+        <v>408</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>357</v>
+        <v>409</v>
       </c>
       <c r="G53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>358</v>
+        <v>410</v>
       </c>
       <c r="J53" t="s">
-        <v>359</v>
+        <v>411</v>
       </c>
       <c r="K53" t="s">
-        <v>360</v>
+        <v>412</v>
       </c>
       <c r="L53" t="s">
-        <v>361</v>
+        <v>413</v>
       </c>
       <c r="M53" t="n">
         <v>2</v>
       </c>
       <c r="N53" t="s">
-        <v>353</v>
+        <v>404</v>
       </c>
       <c r="O53" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="n">
@@ -6250,41 +6821,45 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>362</v>
+        <v>414</v>
       </c>
       <c r="X53" t="s">
-        <v>363</v>
+        <v>415</v>
       </c>
       <c r="Y53" t="s">
-        <v>364</v>
+        <v>416</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>37881</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>178436</v>
+      </c>
+      <c r="C54" t="s">
+        <v>417</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>365</v>
+        <v>418</v>
       </c>
       <c r="G54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>366</v>
+        <v>419</v>
       </c>
       <c r="J54" t="s">
-        <v>367</v>
+        <v>420</v>
       </c>
       <c r="K54" t="s"/>
       <c r="L54" t="s"/>
@@ -6292,10 +6867,10 @@
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>353</v>
+        <v>404</v>
       </c>
       <c r="O54" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -6316,51 +6891,52 @@
       <c r="V54" t="n">
         <v>0</v>
       </c>
-      <c r="W54" t="s"/>
-      <c r="X54" t="s"/>
-      <c r="Y54" t="s"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>37881</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>178437</v>
+      </c>
+      <c r="C55" t="s">
+        <v>421</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>368</v>
+        <v>422</v>
       </c>
       <c r="G55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>369</v>
+        <v>423</v>
       </c>
       <c r="J55" t="s">
-        <v>370</v>
+        <v>424</v>
       </c>
       <c r="K55" t="s">
-        <v>371</v>
+        <v>425</v>
       </c>
       <c r="L55" t="s">
-        <v>372</v>
+        <v>426</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>373</v>
+        <v>427</v>
       </c>
       <c r="O55" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P55" t="n">
         <v>4</v>
@@ -6380,50 +6956,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>372</v>
+        <v>426</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>37881</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>5292</v>
+      </c>
+      <c r="C56" t="s">
+        <v>428</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>374</v>
+        <v>429</v>
       </c>
       <c r="G56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>375</v>
+        <v>430</v>
       </c>
       <c r="J56" t="s">
-        <v>376</v>
+        <v>431</v>
       </c>
       <c r="K56" t="s">
-        <v>377</v>
+        <v>432</v>
       </c>
       <c r="L56" t="s">
-        <v>378</v>
+        <v>433</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>373</v>
+        <v>427</v>
       </c>
       <c r="O56" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
@@ -6437,50 +7017,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>379</v>
+        <v>434</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>37881</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>178438</v>
+      </c>
+      <c r="C57" t="s">
+        <v>435</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>380</v>
+        <v>436</v>
       </c>
       <c r="G57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>381</v>
+        <v>437</v>
       </c>
       <c r="J57" t="s">
-        <v>382</v>
+        <v>438</v>
       </c>
       <c r="K57" t="s">
-        <v>383</v>
+        <v>439</v>
       </c>
       <c r="L57" t="s">
-        <v>384</v>
+        <v>440</v>
       </c>
       <c r="M57" t="n">
         <v>2</v>
       </c>
       <c r="N57" t="s">
-        <v>373</v>
+        <v>427</v>
       </c>
       <c r="O57" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P57" t="n">
         <v>2</v>
@@ -6502,56 +7086,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>385</v>
+        <v>441</v>
       </c>
       <c r="X57" t="s">
-        <v>386</v>
+        <v>442</v>
       </c>
       <c r="Y57" t="s">
-        <v>387</v>
+        <v>443</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>37881</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>178439</v>
+      </c>
+      <c r="C58" t="s">
+        <v>444</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>388</v>
+        <v>445</v>
       </c>
       <c r="G58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>389</v>
+        <v>446</v>
       </c>
       <c r="J58" t="s">
-        <v>390</v>
+        <v>447</v>
       </c>
       <c r="K58" t="s">
-        <v>391</v>
+        <v>448</v>
       </c>
       <c r="L58" t="s">
-        <v>392</v>
+        <v>449</v>
       </c>
       <c r="M58" t="n">
         <v>2</v>
       </c>
       <c r="N58" t="s">
-        <v>393</v>
+        <v>450</v>
       </c>
       <c r="O58" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P58" t="n">
         <v>2</v>
@@ -6573,56 +7161,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>394</v>
+        <v>451</v>
       </c>
       <c r="X58" t="s">
-        <v>386</v>
+        <v>442</v>
       </c>
       <c r="Y58" t="s">
-        <v>395</v>
+        <v>452</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>37881</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>7096</v>
+      </c>
+      <c r="C59" t="s">
+        <v>453</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>396</v>
+        <v>454</v>
       </c>
       <c r="G59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>397</v>
+        <v>455</v>
       </c>
       <c r="J59" t="s">
-        <v>398</v>
+        <v>456</v>
       </c>
       <c r="K59" t="s">
-        <v>399</v>
+        <v>457</v>
       </c>
       <c r="L59" t="s">
-        <v>400</v>
+        <v>458</v>
       </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
       <c r="N59" t="s">
-        <v>401</v>
+        <v>459</v>
       </c>
       <c r="O59" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P59" t="n">
         <v>1</v>
@@ -6646,50 +7238,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>400</v>
+        <v>458</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>37881</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>178440</v>
+      </c>
+      <c r="C60" t="s">
+        <v>460</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>402</v>
+        <v>461</v>
       </c>
       <c r="G60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>403</v>
+        <v>462</v>
       </c>
       <c r="J60" t="s">
-        <v>404</v>
+        <v>463</v>
       </c>
       <c r="K60" t="s">
-        <v>405</v>
+        <v>464</v>
       </c>
       <c r="L60" t="s">
-        <v>406</v>
+        <v>465</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>401</v>
+        <v>459</v>
       </c>
       <c r="O60" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P60" t="n">
         <v>4</v>
@@ -6707,50 +7303,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>406</v>
+        <v>465</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>37881</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>2433</v>
+      </c>
+      <c r="C61" t="s">
+        <v>466</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>407</v>
+        <v>467</v>
       </c>
       <c r="G61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>408</v>
+        <v>468</v>
       </c>
       <c r="J61" t="s">
-        <v>409</v>
+        <v>469</v>
       </c>
       <c r="K61" t="s">
-        <v>410</v>
+        <v>470</v>
       </c>
       <c r="L61" t="s">
-        <v>411</v>
+        <v>471</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>401</v>
+        <v>459</v>
       </c>
       <c r="O61" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="s"/>
@@ -6764,50 +7364,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>411</v>
+        <v>471</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>37881</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>34636</v>
+      </c>
+      <c r="C62" t="s">
+        <v>472</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>412</v>
+        <v>473</v>
       </c>
       <c r="G62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>413</v>
+        <v>474</v>
       </c>
       <c r="J62" t="s">
-        <v>414</v>
+        <v>475</v>
       </c>
       <c r="K62" t="s">
-        <v>415</v>
+        <v>476</v>
       </c>
       <c r="L62" t="s">
-        <v>416</v>
+        <v>477</v>
       </c>
       <c r="M62" t="n">
         <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>417</v>
+        <v>478</v>
       </c>
       <c r="O62" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P62" t="s"/>
       <c r="Q62" t="s"/>
@@ -6825,50 +7429,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>418</v>
+        <v>479</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>37881</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>178441</v>
+      </c>
+      <c r="C63" t="s">
+        <v>480</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>419</v>
+        <v>481</v>
       </c>
       <c r="G63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>420</v>
+        <v>482</v>
       </c>
       <c r="J63" t="s">
-        <v>421</v>
+        <v>483</v>
       </c>
       <c r="K63" t="s">
-        <v>422</v>
+        <v>484</v>
       </c>
       <c r="L63" t="s">
-        <v>423</v>
+        <v>485</v>
       </c>
       <c r="M63" t="n">
         <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>417</v>
+        <v>478</v>
       </c>
       <c r="O63" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="P63" t="s"/>
       <c r="Q63" t="s"/>
@@ -6882,50 +7490,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>423</v>
+        <v>485</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>37881</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>16687</v>
+      </c>
+      <c r="C64" t="s">
+        <v>486</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>424</v>
+        <v>487</v>
       </c>
       <c r="G64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>425</v>
+        <v>488</v>
       </c>
       <c r="J64" t="s">
-        <v>426</v>
+        <v>489</v>
       </c>
       <c r="K64" t="s">
-        <v>427</v>
+        <v>490</v>
       </c>
       <c r="L64" t="s">
-        <v>428</v>
+        <v>491</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>417</v>
+        <v>478</v>
       </c>
       <c r="O64" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P64" t="s"/>
       <c r="Q64" t="s"/>
@@ -6939,50 +7551,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>428</v>
+        <v>491</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>37881</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>178442</v>
+      </c>
+      <c r="C65" t="s">
+        <v>492</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>429</v>
+        <v>493</v>
       </c>
       <c r="G65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>430</v>
+        <v>494</v>
       </c>
       <c r="J65" t="s">
-        <v>431</v>
+        <v>495</v>
       </c>
       <c r="K65" t="s">
-        <v>432</v>
+        <v>496</v>
       </c>
       <c r="L65" t="s">
-        <v>433</v>
+        <v>497</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>434</v>
+        <v>498</v>
       </c>
       <c r="O65" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P65" t="s"/>
       <c r="Q65" t="s"/>
@@ -6996,50 +7612,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>433</v>
+        <v>497</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>37881</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>178443</v>
+      </c>
+      <c r="C66" t="s">
+        <v>499</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>435</v>
+        <v>500</v>
       </c>
       <c r="G66" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>436</v>
+        <v>501</v>
       </c>
       <c r="J66" t="s">
-        <v>437</v>
+        <v>502</v>
       </c>
       <c r="K66" t="s">
-        <v>438</v>
+        <v>503</v>
       </c>
       <c r="L66" t="s">
-        <v>439</v>
+        <v>504</v>
       </c>
       <c r="M66" t="n">
         <v>3</v>
       </c>
       <c r="N66" t="s">
-        <v>434</v>
+        <v>498</v>
       </c>
       <c r="O66" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P66" t="n">
         <v>3</v>
@@ -7063,50 +7683,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>439</v>
+        <v>504</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>37881</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>178444</v>
+      </c>
+      <c r="C67" t="s">
+        <v>505</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>440</v>
+        <v>506</v>
       </c>
       <c r="G67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>441</v>
+        <v>507</v>
       </c>
       <c r="J67" t="s">
-        <v>442</v>
+        <v>508</v>
       </c>
       <c r="K67" t="s">
-        <v>443</v>
+        <v>509</v>
       </c>
       <c r="L67" t="s">
-        <v>444</v>
+        <v>510</v>
       </c>
       <c r="M67" t="n">
         <v>2</v>
       </c>
       <c r="N67" t="s">
-        <v>434</v>
+        <v>498</v>
       </c>
       <c r="O67" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="P67" t="n">
         <v>2</v>
@@ -7128,56 +7752,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>445</v>
+        <v>511</v>
       </c>
       <c r="X67" t="s">
-        <v>446</v>
+        <v>512</v>
       </c>
       <c r="Y67" t="s">
-        <v>447</v>
+        <v>513</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>37881</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>63897</v>
+      </c>
+      <c r="C68" t="s">
+        <v>514</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>448</v>
+        <v>515</v>
       </c>
       <c r="G68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>449</v>
+        <v>516</v>
       </c>
       <c r="J68" t="s">
-        <v>450</v>
+        <v>517</v>
       </c>
       <c r="K68" t="s">
-        <v>451</v>
+        <v>518</v>
       </c>
       <c r="L68" t="s">
-        <v>452</v>
+        <v>519</v>
       </c>
       <c r="M68" t="n">
         <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>453</v>
+        <v>520</v>
       </c>
       <c r="O68" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P68" t="s"/>
       <c r="Q68" t="s"/>
@@ -7197,50 +7825,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>452</v>
+        <v>519</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>37881</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>44968</v>
+      </c>
+      <c r="C69" t="s">
+        <v>521</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>454</v>
+        <v>522</v>
       </c>
       <c r="G69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>455</v>
+        <v>523</v>
       </c>
       <c r="J69" t="s">
-        <v>456</v>
+        <v>524</v>
       </c>
       <c r="K69" t="s">
-        <v>457</v>
+        <v>525</v>
       </c>
       <c r="L69" t="s">
-        <v>458</v>
+        <v>526</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>453</v>
+        <v>520</v>
       </c>
       <c r="O69" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P69" t="s"/>
       <c r="Q69" t="s"/>
@@ -7254,50 +7886,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>458</v>
+        <v>526</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>37881</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>178445</v>
+      </c>
+      <c r="C70" t="s">
+        <v>527</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>459</v>
+        <v>528</v>
       </c>
       <c r="G70" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>460</v>
+        <v>529</v>
       </c>
       <c r="J70" t="s">
-        <v>461</v>
+        <v>530</v>
       </c>
       <c r="K70" t="s">
-        <v>462</v>
+        <v>531</v>
       </c>
       <c r="L70" t="s">
-        <v>463</v>
+        <v>532</v>
       </c>
       <c r="M70" t="n">
         <v>3</v>
       </c>
       <c r="N70" t="s">
-        <v>453</v>
+        <v>520</v>
       </c>
       <c r="O70" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -7321,50 +7957,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>463</v>
+        <v>532</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>37881</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>178446</v>
+      </c>
+      <c r="C71" t="s">
+        <v>533</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>464</v>
+        <v>534</v>
       </c>
       <c r="G71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I71" t="s">
-        <v>465</v>
+        <v>535</v>
       </c>
       <c r="J71" t="s">
-        <v>466</v>
+        <v>536</v>
       </c>
       <c r="K71" t="s">
-        <v>467</v>
+        <v>537</v>
       </c>
       <c r="L71" t="s">
-        <v>468</v>
+        <v>538</v>
       </c>
       <c r="M71" t="n">
         <v>2</v>
       </c>
       <c r="N71" t="s">
-        <v>469</v>
+        <v>539</v>
       </c>
       <c r="O71" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P71" t="n">
         <v>4</v>
@@ -7388,50 +8028,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>468</v>
+        <v>538</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>37881</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>716</v>
+      </c>
+      <c r="C72" t="s">
+        <v>540</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>470</v>
+        <v>541</v>
       </c>
       <c r="G72" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I72" t="s">
-        <v>471</v>
+        <v>542</v>
       </c>
       <c r="J72" t="s">
-        <v>472</v>
+        <v>543</v>
       </c>
       <c r="K72" t="s">
-        <v>473</v>
+        <v>544</v>
       </c>
       <c r="L72" t="s">
-        <v>474</v>
+        <v>545</v>
       </c>
       <c r="M72" t="n">
         <v>4</v>
       </c>
       <c r="N72" t="s">
-        <v>469</v>
+        <v>539</v>
       </c>
       <c r="O72" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P72" t="n">
         <v>4</v>
@@ -7455,50 +8099,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>474</v>
+        <v>545</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>37881</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>52132</v>
+      </c>
+      <c r="C73" t="s">
+        <v>546</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F73" t="s">
-        <v>475</v>
+        <v>547</v>
       </c>
       <c r="G73" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I73" t="s">
-        <v>476</v>
+        <v>548</v>
       </c>
       <c r="J73" t="s">
-        <v>477</v>
+        <v>549</v>
       </c>
       <c r="K73" t="s">
-        <v>478</v>
+        <v>550</v>
       </c>
       <c r="L73" t="s">
-        <v>479</v>
+        <v>551</v>
       </c>
       <c r="M73" t="n">
         <v>4</v>
       </c>
       <c r="N73" t="s">
-        <v>480</v>
+        <v>552</v>
       </c>
       <c r="O73" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P73" t="n">
         <v>4</v>
@@ -7522,50 +8170,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>481</v>
+        <v>553</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>37881</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>178447</v>
+      </c>
+      <c r="C74" t="s">
+        <v>554</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F74" t="s">
-        <v>482</v>
+        <v>555</v>
       </c>
       <c r="G74" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I74" t="s">
-        <v>483</v>
+        <v>556</v>
       </c>
       <c r="J74" t="s">
-        <v>484</v>
+        <v>557</v>
       </c>
       <c r="K74" t="s">
-        <v>485</v>
+        <v>558</v>
       </c>
       <c r="L74" t="s">
-        <v>486</v>
+        <v>559</v>
       </c>
       <c r="M74" t="n">
         <v>4</v>
       </c>
       <c r="N74" t="s">
-        <v>487</v>
+        <v>560</v>
       </c>
       <c r="O74" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P74" t="n">
         <v>5</v>
@@ -7589,50 +8241,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>486</v>
+        <v>559</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>37881</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>178448</v>
+      </c>
+      <c r="C75" t="s">
+        <v>561</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F75" t="s">
-        <v>488</v>
+        <v>562</v>
       </c>
       <c r="G75" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I75" t="s">
-        <v>489</v>
+        <v>563</v>
       </c>
       <c r="J75" t="s">
-        <v>490</v>
+        <v>564</v>
       </c>
       <c r="K75" t="s">
-        <v>491</v>
+        <v>565</v>
       </c>
       <c r="L75" t="s">
-        <v>492</v>
+        <v>566</v>
       </c>
       <c r="M75" t="n">
         <v>4</v>
       </c>
       <c r="N75" t="s">
-        <v>487</v>
+        <v>560</v>
       </c>
       <c r="O75" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P75" t="s"/>
       <c r="Q75" t="s"/>
@@ -7646,50 +8302,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>492</v>
+        <v>566</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>37881</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>178449</v>
+      </c>
+      <c r="C76" t="s">
+        <v>567</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F76" t="s">
-        <v>493</v>
+        <v>568</v>
       </c>
       <c r="G76" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I76" t="s">
-        <v>494</v>
+        <v>569</v>
       </c>
       <c r="J76" t="s">
-        <v>490</v>
+        <v>564</v>
       </c>
       <c r="K76" t="s">
-        <v>495</v>
+        <v>570</v>
       </c>
       <c r="L76" t="s">
-        <v>496</v>
+        <v>571</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>487</v>
+        <v>560</v>
       </c>
       <c r="O76" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P76" t="s"/>
       <c r="Q76" t="s"/>
@@ -7703,50 +8363,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>496</v>
+        <v>571</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>37881</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>57244</v>
+      </c>
+      <c r="C77" t="s">
+        <v>572</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F77" t="s">
-        <v>497</v>
+        <v>573</v>
       </c>
       <c r="G77" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I77" t="s">
-        <v>498</v>
+        <v>574</v>
       </c>
       <c r="J77" t="s">
-        <v>499</v>
+        <v>575</v>
       </c>
       <c r="K77" t="s">
-        <v>500</v>
+        <v>576</v>
       </c>
       <c r="L77" t="s">
-        <v>501</v>
+        <v>577</v>
       </c>
       <c r="M77" t="n">
         <v>4</v>
       </c>
       <c r="N77" t="s">
-        <v>487</v>
+        <v>560</v>
       </c>
       <c r="O77" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P77" t="s"/>
       <c r="Q77" t="s"/>
@@ -7760,41 +8424,45 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>501</v>
+        <v>577</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>37881</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>178450</v>
+      </c>
+      <c r="C78" t="s">
+        <v>578</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F78" t="s">
-        <v>502</v>
+        <v>579</v>
       </c>
       <c r="G78" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I78" t="s">
-        <v>503</v>
+        <v>580</v>
       </c>
       <c r="J78" t="s">
-        <v>504</v>
+        <v>581</v>
       </c>
       <c r="K78" t="s">
-        <v>505</v>
+        <v>582</v>
       </c>
       <c r="L78" t="s">
-        <v>506</v>
+        <v>583</v>
       </c>
       <c r="M78" t="n">
         <v>5</v>
@@ -7823,41 +8491,45 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>506</v>
+        <v>583</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>37881</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>178451</v>
+      </c>
+      <c r="C79" t="s">
+        <v>584</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F79" t="s">
-        <v>507</v>
+        <v>585</v>
       </c>
       <c r="G79" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I79" t="s">
-        <v>508</v>
+        <v>586</v>
       </c>
       <c r="J79" t="s">
-        <v>509</v>
+        <v>587</v>
       </c>
       <c r="K79" t="s">
-        <v>510</v>
+        <v>588</v>
       </c>
       <c r="L79" t="s">
-        <v>511</v>
+        <v>589</v>
       </c>
       <c r="M79" t="n">
         <v>4</v>
@@ -7884,56 +8556,60 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>512</v>
+        <v>590</v>
       </c>
       <c r="X79" t="s">
-        <v>513</v>
+        <v>591</v>
       </c>
       <c r="Y79" t="s">
-        <v>514</v>
+        <v>592</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>37881</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>18776</v>
+      </c>
+      <c r="C80" t="s">
+        <v>593</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F80" t="s">
-        <v>515</v>
+        <v>594</v>
       </c>
       <c r="G80" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I80" t="s">
-        <v>516</v>
+        <v>595</v>
       </c>
       <c r="J80" t="s">
-        <v>517</v>
+        <v>596</v>
       </c>
       <c r="K80" t="s">
-        <v>518</v>
+        <v>597</v>
       </c>
       <c r="L80" t="s">
-        <v>519</v>
+        <v>598</v>
       </c>
       <c r="M80" t="n">
         <v>2</v>
       </c>
       <c r="N80" t="s">
-        <v>520</v>
+        <v>599</v>
       </c>
       <c r="O80" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P80" t="n">
         <v>1</v>
@@ -7953,50 +8629,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>521</v>
+        <v>600</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>37881</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>178452</v>
+      </c>
+      <c r="C81" t="s">
+        <v>601</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F81" t="s">
-        <v>522</v>
+        <v>602</v>
       </c>
       <c r="G81" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I81" t="s">
-        <v>523</v>
+        <v>603</v>
       </c>
       <c r="J81" t="s">
-        <v>524</v>
+        <v>604</v>
       </c>
       <c r="K81" t="s">
-        <v>525</v>
+        <v>605</v>
       </c>
       <c r="L81" t="s">
-        <v>526</v>
+        <v>606</v>
       </c>
       <c r="M81" t="n">
         <v>5</v>
       </c>
       <c r="N81" t="s">
-        <v>520</v>
+        <v>599</v>
       </c>
       <c r="O81" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P81" t="s"/>
       <c r="Q81" t="s"/>
@@ -8010,50 +8690,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>526</v>
+        <v>606</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>37881</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>178453</v>
+      </c>
+      <c r="C82" t="s">
+        <v>607</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F82" t="s">
-        <v>527</v>
+        <v>608</v>
       </c>
       <c r="G82" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I82" t="s">
-        <v>528</v>
+        <v>609</v>
       </c>
       <c r="J82" t="s">
-        <v>529</v>
+        <v>610</v>
       </c>
       <c r="K82" t="s">
-        <v>530</v>
+        <v>611</v>
       </c>
       <c r="L82" t="s">
-        <v>531</v>
+        <v>612</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>520</v>
+        <v>599</v>
       </c>
       <c r="O82" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
@@ -8077,50 +8761,54 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>531</v>
+        <v>612</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>37881</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>178454</v>
+      </c>
+      <c r="C83" t="s">
+        <v>613</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F83" t="s">
-        <v>532</v>
+        <v>614</v>
       </c>
       <c r="G83" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I83" t="s">
-        <v>533</v>
+        <v>615</v>
       </c>
       <c r="J83" t="s">
-        <v>534</v>
+        <v>616</v>
       </c>
       <c r="K83" t="s">
-        <v>535</v>
+        <v>617</v>
       </c>
       <c r="L83" t="s">
-        <v>536</v>
+        <v>618</v>
       </c>
       <c r="M83" t="n">
         <v>2</v>
       </c>
       <c r="N83" t="s">
-        <v>537</v>
+        <v>619</v>
       </c>
       <c r="O83" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P83" t="n">
         <v>4</v>
@@ -8142,56 +8830,60 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>538</v>
+        <v>620</v>
       </c>
       <c r="X83" t="s">
-        <v>539</v>
+        <v>621</v>
       </c>
       <c r="Y83" t="s">
-        <v>540</v>
+        <v>622</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>37881</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>26565</v>
+      </c>
+      <c r="C84" t="s">
+        <v>623</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F84" t="s">
-        <v>541</v>
+        <v>624</v>
       </c>
       <c r="G84" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I84" t="s">
-        <v>542</v>
+        <v>625</v>
       </c>
       <c r="J84" t="s">
-        <v>543</v>
+        <v>626</v>
       </c>
       <c r="K84" t="s">
-        <v>544</v>
+        <v>627</v>
       </c>
       <c r="L84" t="s">
-        <v>545</v>
+        <v>628</v>
       </c>
       <c r="M84" t="n">
         <v>4</v>
       </c>
       <c r="N84" t="s">
-        <v>546</v>
+        <v>629</v>
       </c>
       <c r="O84" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P84" t="n">
         <v>3</v>
@@ -8213,56 +8905,60 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>547</v>
+        <v>630</v>
       </c>
       <c r="X84" t="s">
-        <v>548</v>
+        <v>631</v>
       </c>
       <c r="Y84" t="s">
-        <v>549</v>
+        <v>632</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>37881</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>178455</v>
+      </c>
+      <c r="C85" t="s">
+        <v>633</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F85" t="s">
-        <v>550</v>
+        <v>634</v>
       </c>
       <c r="G85" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I85" t="s">
-        <v>551</v>
+        <v>635</v>
       </c>
       <c r="J85" t="s">
-        <v>552</v>
+        <v>636</v>
       </c>
       <c r="K85" t="s">
-        <v>553</v>
+        <v>637</v>
       </c>
       <c r="L85" t="s">
-        <v>554</v>
+        <v>638</v>
       </c>
       <c r="M85" t="n">
         <v>2</v>
       </c>
       <c r="N85" t="s">
-        <v>546</v>
+        <v>629</v>
       </c>
       <c r="O85" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P85" t="n">
         <v>3</v>
@@ -8284,56 +8980,60 @@
         <v>0</v>
       </c>
       <c r="W85" t="s">
-        <v>555</v>
+        <v>639</v>
       </c>
       <c r="X85" t="s">
-        <v>548</v>
+        <v>631</v>
       </c>
       <c r="Y85" t="s">
-        <v>556</v>
+        <v>640</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>37881</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>178456</v>
+      </c>
+      <c r="C86" t="s">
+        <v>641</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F86" t="s">
-        <v>557</v>
+        <v>642</v>
       </c>
       <c r="G86" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I86" t="s">
-        <v>558</v>
+        <v>643</v>
       </c>
       <c r="J86" t="s">
-        <v>559</v>
+        <v>644</v>
       </c>
       <c r="K86" t="s">
-        <v>560</v>
+        <v>645</v>
       </c>
       <c r="L86" t="s">
-        <v>561</v>
+        <v>646</v>
       </c>
       <c r="M86" t="n">
         <v>3</v>
       </c>
       <c r="N86" t="s">
-        <v>562</v>
+        <v>647</v>
       </c>
       <c r="O86" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P86" t="n">
         <v>4</v>
@@ -8355,47 +9055,51 @@
         <v>0</v>
       </c>
       <c r="W86" t="s">
-        <v>563</v>
+        <v>648</v>
       </c>
       <c r="X86" t="s">
-        <v>564</v>
+        <v>649</v>
       </c>
       <c r="Y86" t="s">
-        <v>565</v>
+        <v>650</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>37881</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>178457</v>
+      </c>
+      <c r="C87" t="s">
+        <v>651</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F87" t="s">
-        <v>566</v>
+        <v>652</v>
       </c>
       <c r="G87" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I87" t="s">
-        <v>567</v>
+        <v>653</v>
       </c>
       <c r="J87" t="s">
-        <v>568</v>
+        <v>654</v>
       </c>
       <c r="K87" t="s">
-        <v>569</v>
+        <v>655</v>
       </c>
       <c r="L87" t="s">
-        <v>570</v>
+        <v>656</v>
       </c>
       <c r="M87" t="n">
         <v>4</v>
@@ -8422,56 +9126,60 @@
         <v>0</v>
       </c>
       <c r="W87" t="s">
-        <v>563</v>
+        <v>648</v>
       </c>
       <c r="X87" t="s">
-        <v>564</v>
+        <v>649</v>
       </c>
       <c r="Y87" t="s">
-        <v>571</v>
+        <v>657</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>37881</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>178458</v>
+      </c>
+      <c r="C88" t="s">
+        <v>658</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F88" t="s">
-        <v>572</v>
+        <v>659</v>
       </c>
       <c r="G88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I88" t="s">
-        <v>573</v>
+        <v>660</v>
       </c>
       <c r="J88" t="s">
-        <v>574</v>
+        <v>661</v>
       </c>
       <c r="K88" t="s">
-        <v>575</v>
+        <v>662</v>
       </c>
       <c r="L88" t="s">
-        <v>576</v>
+        <v>663</v>
       </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
       <c r="N88" t="s">
-        <v>577</v>
+        <v>664</v>
       </c>
       <c r="O88" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P88" t="n">
         <v>2</v>
@@ -8489,56 +9197,60 @@
         <v>0</v>
       </c>
       <c r="W88" t="s">
-        <v>578</v>
+        <v>665</v>
       </c>
       <c r="X88" t="s">
-        <v>564</v>
+        <v>649</v>
       </c>
       <c r="Y88" t="s">
-        <v>579</v>
+        <v>666</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>37881</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>4155</v>
+      </c>
+      <c r="C89" t="s">
+        <v>667</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F89" t="s">
-        <v>580</v>
+        <v>668</v>
       </c>
       <c r="G89" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I89" t="s">
-        <v>581</v>
+        <v>669</v>
       </c>
       <c r="J89" t="s">
-        <v>582</v>
+        <v>670</v>
       </c>
       <c r="K89" t="s">
-        <v>583</v>
+        <v>671</v>
       </c>
       <c r="L89" t="s">
-        <v>584</v>
+        <v>672</v>
       </c>
       <c r="M89" t="n">
         <v>5</v>
       </c>
       <c r="N89" t="s">
-        <v>585</v>
+        <v>673</v>
       </c>
       <c r="O89" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P89" t="n">
         <v>5</v>
@@ -8562,50 +9274,54 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>584</v>
+        <v>672</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>37881</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>73847</v>
+      </c>
+      <c r="C90" t="s">
+        <v>674</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F90" t="s">
-        <v>586</v>
+        <v>675</v>
       </c>
       <c r="G90" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I90" t="s">
-        <v>587</v>
+        <v>676</v>
       </c>
       <c r="J90" t="s">
-        <v>588</v>
+        <v>677</v>
       </c>
       <c r="K90" t="s">
-        <v>589</v>
+        <v>678</v>
       </c>
       <c r="L90" t="s">
-        <v>590</v>
+        <v>679</v>
       </c>
       <c r="M90" t="n">
         <v>3</v>
       </c>
       <c r="N90" t="s">
-        <v>585</v>
+        <v>673</v>
       </c>
       <c r="O90" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P90" t="s"/>
       <c r="Q90" t="s"/>
@@ -8619,50 +9335,54 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>591</v>
+        <v>680</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>37881</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>178459</v>
+      </c>
+      <c r="C91" t="s">
+        <v>681</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F91" t="s">
-        <v>592</v>
+        <v>682</v>
       </c>
       <c r="G91" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I91" t="s">
-        <v>593</v>
+        <v>683</v>
       </c>
       <c r="J91" t="s">
-        <v>594</v>
+        <v>684</v>
       </c>
       <c r="K91" t="s">
-        <v>595</v>
+        <v>685</v>
       </c>
       <c r="L91" t="s">
-        <v>596</v>
+        <v>686</v>
       </c>
       <c r="M91" t="n">
         <v>5</v>
       </c>
       <c r="N91" t="s">
-        <v>585</v>
+        <v>673</v>
       </c>
       <c r="O91" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P91" t="s"/>
       <c r="Q91" t="n">
@@ -8682,41 +9402,45 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>596</v>
+        <v>686</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>37881</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>178460</v>
+      </c>
+      <c r="C92" t="s">
+        <v>687</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F92" t="s">
-        <v>597</v>
+        <v>688</v>
       </c>
       <c r="G92" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I92" t="s">
-        <v>598</v>
+        <v>689</v>
       </c>
       <c r="J92" t="s">
-        <v>599</v>
+        <v>690</v>
       </c>
       <c r="K92" t="s">
-        <v>600</v>
+        <v>691</v>
       </c>
       <c r="L92" t="s">
-        <v>601</v>
+        <v>692</v>
       </c>
       <c r="M92" t="n">
         <v>5</v>
@@ -8745,50 +9469,54 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>601</v>
+        <v>692</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>37881</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>178461</v>
+      </c>
+      <c r="C93" t="s">
+        <v>693</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F93" t="s">
-        <v>602</v>
+        <v>694</v>
       </c>
       <c r="G93" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I93" t="s">
-        <v>603</v>
+        <v>695</v>
       </c>
       <c r="J93" t="s">
-        <v>604</v>
+        <v>696</v>
       </c>
       <c r="K93" t="s">
-        <v>605</v>
+        <v>697</v>
       </c>
       <c r="L93" t="s">
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="M93" t="n">
         <v>5</v>
       </c>
       <c r="N93" t="s">
-        <v>607</v>
+        <v>699</v>
       </c>
       <c r="O93" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P93" t="s"/>
       <c r="Q93" t="n">
@@ -8808,50 +9536,54 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>606</v>
+        <v>698</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>37881</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>4094</v>
+      </c>
+      <c r="C94" t="s">
+        <v>700</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F94" t="s">
-        <v>608</v>
+        <v>701</v>
       </c>
       <c r="G94" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I94" t="s">
-        <v>609</v>
+        <v>702</v>
       </c>
       <c r="J94" t="s">
-        <v>604</v>
+        <v>696</v>
       </c>
       <c r="K94" t="s">
-        <v>610</v>
+        <v>703</v>
       </c>
       <c r="L94" t="s">
-        <v>611</v>
+        <v>704</v>
       </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
       <c r="N94" t="s">
-        <v>607</v>
+        <v>699</v>
       </c>
       <c r="O94" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P94" t="n">
         <v>1</v>
@@ -8875,50 +9607,54 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>611</v>
+        <v>704</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>37881</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>7184</v>
+      </c>
+      <c r="C95" t="s">
+        <v>705</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F95" t="s">
-        <v>612</v>
+        <v>706</v>
       </c>
       <c r="G95" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I95" t="s">
-        <v>613</v>
+        <v>707</v>
       </c>
       <c r="J95" t="s">
-        <v>614</v>
+        <v>708</v>
       </c>
       <c r="K95" t="s">
-        <v>615</v>
+        <v>709</v>
       </c>
       <c r="L95" t="s">
-        <v>616</v>
+        <v>710</v>
       </c>
       <c r="M95" t="n">
         <v>4</v>
       </c>
       <c r="N95" t="s">
-        <v>617</v>
+        <v>711</v>
       </c>
       <c r="O95" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P95" t="n">
         <v>4</v>
@@ -8942,50 +9678,54 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>616</v>
+        <v>710</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>37881</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>178462</v>
+      </c>
+      <c r="C96" t="s">
+        <v>712</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F96" t="s">
-        <v>618</v>
+        <v>713</v>
       </c>
       <c r="G96" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I96" t="s">
-        <v>619</v>
+        <v>714</v>
       </c>
       <c r="J96" t="s">
-        <v>620</v>
+        <v>715</v>
       </c>
       <c r="K96" t="s">
-        <v>621</v>
+        <v>716</v>
       </c>
       <c r="L96" t="s">
-        <v>622</v>
+        <v>717</v>
       </c>
       <c r="M96" t="n">
         <v>4</v>
       </c>
       <c r="N96" t="s">
-        <v>617</v>
+        <v>711</v>
       </c>
       <c r="O96" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="P96" t="n">
         <v>4</v>
@@ -9009,50 +9749,54 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>622</v>
+        <v>717</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>37881</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>86846</v>
+      </c>
+      <c r="C97" t="s">
+        <v>718</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F97" t="s">
-        <v>623</v>
+        <v>719</v>
       </c>
       <c r="G97" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I97" t="s">
-        <v>624</v>
+        <v>720</v>
       </c>
       <c r="J97" t="s">
-        <v>620</v>
+        <v>715</v>
       </c>
       <c r="K97" t="s">
-        <v>625</v>
+        <v>721</v>
       </c>
       <c r="L97" t="s">
-        <v>626</v>
+        <v>722</v>
       </c>
       <c r="M97" t="n">
         <v>4</v>
       </c>
       <c r="N97" t="s">
-        <v>617</v>
+        <v>711</v>
       </c>
       <c r="O97" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="P97" t="n">
         <v>5</v>
@@ -9076,50 +9820,54 @@
       <c r="W97" t="s"/>
       <c r="X97" t="s"/>
       <c r="Y97" t="s">
-        <v>627</v>
+        <v>723</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>37881</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>25366</v>
+      </c>
+      <c r="C98" t="s">
+        <v>724</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F98" t="s">
-        <v>628</v>
+        <v>725</v>
       </c>
       <c r="G98" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I98" t="s">
-        <v>629</v>
+        <v>726</v>
       </c>
       <c r="J98" t="s">
-        <v>630</v>
+        <v>727</v>
       </c>
       <c r="K98" t="s">
-        <v>631</v>
+        <v>728</v>
       </c>
       <c r="L98" t="s">
-        <v>632</v>
+        <v>729</v>
       </c>
       <c r="M98" t="n">
         <v>4</v>
       </c>
       <c r="N98" t="s">
-        <v>633</v>
+        <v>730</v>
       </c>
       <c r="O98" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P98" t="s"/>
       <c r="Q98" t="s"/>
@@ -9133,50 +9881,54 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>632</v>
+        <v>729</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>37881</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>178463</v>
+      </c>
+      <c r="C99" t="s">
+        <v>731</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F99" t="s">
-        <v>634</v>
+        <v>732</v>
       </c>
       <c r="G99" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I99" t="s">
-        <v>635</v>
+        <v>733</v>
       </c>
       <c r="J99" t="s">
-        <v>636</v>
+        <v>734</v>
       </c>
       <c r="K99" t="s">
-        <v>637</v>
+        <v>735</v>
       </c>
       <c r="L99" t="s">
-        <v>638</v>
+        <v>736</v>
       </c>
       <c r="M99" t="n">
         <v>2</v>
       </c>
       <c r="N99" t="s">
-        <v>639</v>
+        <v>737</v>
       </c>
       <c r="O99" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P99" t="n">
         <v>1</v>
@@ -9200,50 +9952,54 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>638</v>
+        <v>736</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>37881</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>24064</v>
+      </c>
+      <c r="C100" t="s">
+        <v>738</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F100" t="s">
-        <v>640</v>
+        <v>739</v>
       </c>
       <c r="G100" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I100" t="s">
-        <v>641</v>
+        <v>740</v>
       </c>
       <c r="J100" t="s">
-        <v>642</v>
+        <v>741</v>
       </c>
       <c r="K100" t="s">
-        <v>491</v>
+        <v>565</v>
       </c>
       <c r="L100" t="s">
-        <v>643</v>
+        <v>742</v>
       </c>
       <c r="M100" t="n">
         <v>4</v>
       </c>
       <c r="N100" t="s">
-        <v>639</v>
+        <v>737</v>
       </c>
       <c r="O100" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P100" t="n">
         <v>4</v>
@@ -9267,50 +10023,54 @@
       <c r="W100" t="s"/>
       <c r="X100" t="s"/>
       <c r="Y100" t="s">
-        <v>643</v>
+        <v>742</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>37881</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>178464</v>
+      </c>
+      <c r="C101" t="s">
+        <v>743</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F101" t="s">
-        <v>644</v>
+        <v>744</v>
       </c>
       <c r="G101" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I101" t="s">
-        <v>645</v>
+        <v>745</v>
       </c>
       <c r="J101" t="s">
-        <v>646</v>
+        <v>746</v>
       </c>
       <c r="K101" t="s">
-        <v>647</v>
+        <v>747</v>
       </c>
       <c r="L101" t="s">
-        <v>648</v>
+        <v>748</v>
       </c>
       <c r="M101" t="n">
         <v>5</v>
       </c>
       <c r="N101" t="s">
-        <v>649</v>
+        <v>749</v>
       </c>
       <c r="O101" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P101" t="s"/>
       <c r="Q101" t="s"/>
@@ -9324,50 +10084,54 @@
       <c r="W101" t="s"/>
       <c r="X101" t="s"/>
       <c r="Y101" t="s">
-        <v>648</v>
+        <v>748</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>37881</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>178465</v>
+      </c>
+      <c r="C102" t="s">
+        <v>750</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F102" t="s">
-        <v>650</v>
+        <v>751</v>
       </c>
       <c r="G102" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I102" t="s">
-        <v>651</v>
+        <v>752</v>
       </c>
       <c r="J102" t="s">
-        <v>652</v>
+        <v>753</v>
       </c>
       <c r="K102" t="s">
-        <v>653</v>
+        <v>754</v>
       </c>
       <c r="L102" t="s">
-        <v>654</v>
+        <v>755</v>
       </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
       <c r="N102" t="s">
-        <v>655</v>
+        <v>756</v>
       </c>
       <c r="O102" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P102" t="n">
         <v>1</v>
@@ -9389,56 +10153,60 @@
         <v>0</v>
       </c>
       <c r="W102" t="s">
-        <v>656</v>
+        <v>757</v>
       </c>
       <c r="X102" t="s">
-        <v>657</v>
+        <v>758</v>
       </c>
       <c r="Y102" t="s">
-        <v>658</v>
+        <v>759</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>37881</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>77229</v>
+      </c>
+      <c r="C103" t="s">
+        <v>760</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F103" t="s">
-        <v>659</v>
+        <v>761</v>
       </c>
       <c r="G103" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I103" t="s">
-        <v>660</v>
+        <v>762</v>
       </c>
       <c r="J103" t="s">
-        <v>661</v>
+        <v>763</v>
       </c>
       <c r="K103" t="s">
-        <v>662</v>
+        <v>764</v>
       </c>
       <c r="L103" t="s">
-        <v>663</v>
+        <v>765</v>
       </c>
       <c r="M103" t="n">
         <v>3</v>
       </c>
       <c r="N103" t="s">
-        <v>655</v>
+        <v>756</v>
       </c>
       <c r="O103" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P103" t="s"/>
       <c r="Q103" t="s"/>
@@ -9452,50 +10220,54 @@
       <c r="W103" t="s"/>
       <c r="X103" t="s"/>
       <c r="Y103" t="s">
-        <v>663</v>
+        <v>765</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>37881</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>178466</v>
+      </c>
+      <c r="C104" t="s">
+        <v>766</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F104" t="s">
-        <v>664</v>
+        <v>767</v>
       </c>
       <c r="G104" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I104" t="s">
-        <v>665</v>
+        <v>768</v>
       </c>
       <c r="J104" t="s">
-        <v>666</v>
+        <v>769</v>
       </c>
       <c r="K104" t="s">
-        <v>667</v>
+        <v>770</v>
       </c>
       <c r="L104" t="s">
-        <v>668</v>
+        <v>771</v>
       </c>
       <c r="M104" t="n">
         <v>4</v>
       </c>
       <c r="N104" t="s">
-        <v>669</v>
+        <v>772</v>
       </c>
       <c r="O104" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P104" t="n">
         <v>4</v>
@@ -9519,50 +10291,54 @@
       <c r="W104" t="s"/>
       <c r="X104" t="s"/>
       <c r="Y104" t="s">
-        <v>668</v>
+        <v>771</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>37881</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>2993</v>
+      </c>
+      <c r="C105" t="s">
+        <v>773</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F105" t="s">
-        <v>670</v>
+        <v>774</v>
       </c>
       <c r="G105" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I105" t="s">
-        <v>671</v>
+        <v>775</v>
       </c>
       <c r="J105" t="s">
-        <v>672</v>
+        <v>776</v>
       </c>
       <c r="K105" t="s">
-        <v>673</v>
+        <v>777</v>
       </c>
       <c r="L105" t="s">
-        <v>674</v>
+        <v>778</v>
       </c>
       <c r="M105" t="n">
         <v>3</v>
       </c>
       <c r="N105" t="s">
-        <v>675</v>
+        <v>779</v>
       </c>
       <c r="O105" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P105" t="n">
         <v>4</v>
@@ -9584,56 +10360,60 @@
         <v>0</v>
       </c>
       <c r="W105" t="s">
-        <v>676</v>
+        <v>780</v>
       </c>
       <c r="X105" t="s">
-        <v>677</v>
+        <v>781</v>
       </c>
       <c r="Y105" t="s">
-        <v>678</v>
+        <v>782</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>37881</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>25607</v>
+      </c>
+      <c r="C106" t="s">
+        <v>783</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F106" t="s">
-        <v>679</v>
+        <v>784</v>
       </c>
       <c r="G106" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I106" t="s">
-        <v>680</v>
+        <v>785</v>
       </c>
       <c r="J106" t="s">
-        <v>681</v>
+        <v>786</v>
       </c>
       <c r="K106" t="s">
-        <v>682</v>
+        <v>787</v>
       </c>
       <c r="L106" t="s">
-        <v>683</v>
+        <v>788</v>
       </c>
       <c r="M106" t="n">
         <v>3</v>
       </c>
       <c r="N106" t="s">
-        <v>669</v>
+        <v>772</v>
       </c>
       <c r="O106" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P106" t="n">
         <v>2</v>
@@ -9655,56 +10435,60 @@
         <v>0</v>
       </c>
       <c r="W106" t="s">
-        <v>676</v>
+        <v>780</v>
       </c>
       <c r="X106" t="s">
-        <v>677</v>
+        <v>781</v>
       </c>
       <c r="Y106" t="s">
-        <v>684</v>
+        <v>789</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>37881</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>178467</v>
+      </c>
+      <c r="C107" t="s">
+        <v>790</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F107" t="s">
-        <v>685</v>
+        <v>791</v>
       </c>
       <c r="G107" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I107" t="s">
-        <v>686</v>
+        <v>792</v>
       </c>
       <c r="J107" t="s">
-        <v>687</v>
+        <v>793</v>
       </c>
       <c r="K107" t="s">
-        <v>688</v>
+        <v>794</v>
       </c>
       <c r="L107" t="s">
-        <v>689</v>
+        <v>795</v>
       </c>
       <c r="M107" t="n">
         <v>5</v>
       </c>
       <c r="N107" t="s">
-        <v>690</v>
+        <v>796</v>
       </c>
       <c r="O107" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P107" t="n">
         <v>5</v>
@@ -9728,41 +10512,45 @@
       <c r="W107" t="s"/>
       <c r="X107" t="s"/>
       <c r="Y107" t="s">
-        <v>689</v>
+        <v>795</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>37881</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>178468</v>
+      </c>
+      <c r="C108" t="s">
+        <v>797</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F108" t="s">
-        <v>691</v>
+        <v>798</v>
       </c>
       <c r="G108" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I108" t="s">
-        <v>692</v>
+        <v>799</v>
       </c>
       <c r="J108" t="s">
-        <v>693</v>
+        <v>800</v>
       </c>
       <c r="K108" t="s">
-        <v>694</v>
+        <v>801</v>
       </c>
       <c r="L108" t="s">
-        <v>695</v>
+        <v>802</v>
       </c>
       <c r="M108" t="n">
         <v>4</v>
@@ -9791,50 +10579,54 @@
       <c r="W108" t="s"/>
       <c r="X108" t="s"/>
       <c r="Y108" t="s">
-        <v>695</v>
+        <v>802</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>37881</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>21629</v>
+      </c>
+      <c r="C109" t="s">
+        <v>803</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F109" t="s">
-        <v>696</v>
+        <v>804</v>
       </c>
       <c r="G109" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I109" t="s">
-        <v>697</v>
+        <v>805</v>
       </c>
       <c r="J109" t="s">
-        <v>693</v>
+        <v>800</v>
       </c>
       <c r="K109" t="s">
-        <v>698</v>
+        <v>806</v>
       </c>
       <c r="L109" t="s">
-        <v>699</v>
+        <v>807</v>
       </c>
       <c r="M109" t="n">
         <v>4</v>
       </c>
       <c r="N109" t="s">
-        <v>690</v>
+        <v>796</v>
       </c>
       <c r="O109" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P109" t="n">
         <v>4</v>
@@ -9858,50 +10650,54 @@
       <c r="W109" t="s"/>
       <c r="X109" t="s"/>
       <c r="Y109" t="s">
-        <v>699</v>
+        <v>807</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>37881</v>
       </c>
-      <c r="B110" t="s"/>
-      <c r="C110" t="s"/>
+      <c r="B110" t="n">
+        <v>20315</v>
+      </c>
+      <c r="C110" t="s">
+        <v>808</v>
+      </c>
       <c r="D110" t="n">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F110" t="s">
-        <v>700</v>
+        <v>809</v>
       </c>
       <c r="G110" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I110" t="s">
-        <v>701</v>
+        <v>810</v>
       </c>
       <c r="J110" t="s">
-        <v>702</v>
+        <v>811</v>
       </c>
       <c r="K110" t="s">
-        <v>703</v>
+        <v>812</v>
       </c>
       <c r="L110" t="s">
-        <v>704</v>
+        <v>813</v>
       </c>
       <c r="M110" t="n">
         <v>5</v>
       </c>
       <c r="N110" t="s">
-        <v>705</v>
+        <v>814</v>
       </c>
       <c r="O110" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P110" t="n">
         <v>5</v>
@@ -9925,35 +10721,39 @@
       <c r="W110" t="s"/>
       <c r="X110" t="s"/>
       <c r="Y110" t="s">
-        <v>704</v>
+        <v>813</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>37881</v>
       </c>
-      <c r="B111" t="s"/>
-      <c r="C111" t="s"/>
+      <c r="B111" t="n">
+        <v>15878</v>
+      </c>
+      <c r="C111" t="s">
+        <v>815</v>
+      </c>
       <c r="D111" t="n">
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F111" t="s">
-        <v>706</v>
+        <v>816</v>
       </c>
       <c r="G111" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I111" t="s">
-        <v>707</v>
+        <v>817</v>
       </c>
       <c r="J111" t="s">
-        <v>708</v>
+        <v>818</v>
       </c>
       <c r="K111" t="s"/>
       <c r="L111" t="s"/>
@@ -9961,10 +10761,10 @@
         <v>1</v>
       </c>
       <c r="N111" t="s">
-        <v>705</v>
+        <v>814</v>
       </c>
       <c r="O111" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="P111" t="n">
         <v>2</v>
@@ -9985,42 +10785,43 @@
       <c r="V111" t="n">
         <v>0</v>
       </c>
-      <c r="W111" t="s"/>
-      <c r="X111" t="s"/>
-      <c r="Y111" t="s"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
         <v>37881</v>
       </c>
-      <c r="B112" t="s"/>
-      <c r="C112" t="s"/>
+      <c r="B112" t="n">
+        <v>178469</v>
+      </c>
+      <c r="C112" t="s">
+        <v>819</v>
+      </c>
       <c r="D112" t="n">
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F112" t="s">
-        <v>709</v>
+        <v>820</v>
       </c>
       <c r="G112" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I112" t="s">
-        <v>710</v>
+        <v>821</v>
       </c>
       <c r="J112" t="s">
-        <v>711</v>
+        <v>822</v>
       </c>
       <c r="K112" t="s">
-        <v>712</v>
+        <v>823</v>
       </c>
       <c r="L112" t="s">
-        <v>713</v>
+        <v>824</v>
       </c>
       <c r="M112" t="n">
         <v>4</v>
@@ -10049,50 +10850,54 @@
       <c r="W112" t="s"/>
       <c r="X112" t="s"/>
       <c r="Y112" t="s">
-        <v>713</v>
+        <v>824</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
         <v>37881</v>
       </c>
-      <c r="B113" t="s"/>
-      <c r="C113" t="s"/>
+      <c r="B113" t="n">
+        <v>178470</v>
+      </c>
+      <c r="C113" t="s">
+        <v>825</v>
+      </c>
       <c r="D113" t="n">
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F113" t="s">
-        <v>714</v>
+        <v>826</v>
       </c>
       <c r="G113" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I113" t="s">
-        <v>715</v>
+        <v>827</v>
       </c>
       <c r="J113" t="s">
-        <v>716</v>
+        <v>828</v>
       </c>
       <c r="K113" t="s">
-        <v>717</v>
+        <v>829</v>
       </c>
       <c r="L113" t="s">
-        <v>718</v>
+        <v>830</v>
       </c>
       <c r="M113" t="n">
         <v>2</v>
       </c>
       <c r="N113" t="s">
-        <v>719</v>
+        <v>831</v>
       </c>
       <c r="O113" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P113" t="n">
         <v>1</v>
@@ -10116,50 +10921,54 @@
       <c r="W113" t="s"/>
       <c r="X113" t="s"/>
       <c r="Y113" t="s">
-        <v>718</v>
+        <v>830</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
         <v>37881</v>
       </c>
-      <c r="B114" t="s"/>
-      <c r="C114" t="s"/>
+      <c r="B114" t="n">
+        <v>64017</v>
+      </c>
+      <c r="C114" t="s">
+        <v>832</v>
+      </c>
       <c r="D114" t="n">
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F114" t="s">
-        <v>720</v>
+        <v>833</v>
       </c>
       <c r="G114" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H114" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I114" t="s">
-        <v>721</v>
+        <v>834</v>
       </c>
       <c r="J114" t="s">
-        <v>722</v>
+        <v>835</v>
       </c>
       <c r="K114" t="s">
-        <v>723</v>
+        <v>836</v>
       </c>
       <c r="L114" t="s">
-        <v>724</v>
+        <v>837</v>
       </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
       <c r="N114" t="s">
-        <v>725</v>
+        <v>838</v>
       </c>
       <c r="O114" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P114" t="n">
         <v>1</v>
@@ -10183,50 +10992,54 @@
       <c r="W114" t="s"/>
       <c r="X114" t="s"/>
       <c r="Y114" t="s">
-        <v>724</v>
+        <v>837</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
         <v>37881</v>
       </c>
-      <c r="B115" t="s"/>
-      <c r="C115" t="s"/>
+      <c r="B115" t="n">
+        <v>50048</v>
+      </c>
+      <c r="C115" t="s">
+        <v>839</v>
+      </c>
       <c r="D115" t="n">
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F115" t="s">
-        <v>726</v>
+        <v>840</v>
       </c>
       <c r="G115" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I115" t="s">
-        <v>727</v>
+        <v>841</v>
       </c>
       <c r="J115" t="s">
-        <v>728</v>
+        <v>842</v>
       </c>
       <c r="K115" t="s">
-        <v>729</v>
+        <v>843</v>
       </c>
       <c r="L115" t="s">
-        <v>730</v>
+        <v>844</v>
       </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
       <c r="N115" t="s">
-        <v>725</v>
+        <v>838</v>
       </c>
       <c r="O115" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P115" t="n">
         <v>1</v>
@@ -10250,35 +11063,39 @@
       <c r="W115" t="s"/>
       <c r="X115" t="s"/>
       <c r="Y115" t="s">
-        <v>730</v>
+        <v>844</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
         <v>37881</v>
       </c>
-      <c r="B116" t="s"/>
-      <c r="C116" t="s"/>
+      <c r="B116" t="n">
+        <v>178471</v>
+      </c>
+      <c r="C116" t="s">
+        <v>845</v>
+      </c>
       <c r="D116" t="n">
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F116" t="s">
-        <v>731</v>
+        <v>846</v>
       </c>
       <c r="G116" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H116" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I116" t="s">
-        <v>732</v>
+        <v>847</v>
       </c>
       <c r="J116" t="s">
-        <v>733</v>
+        <v>848</v>
       </c>
       <c r="K116" t="s"/>
       <c r="L116" t="s"/>
@@ -10286,10 +11103,10 @@
         <v>4</v>
       </c>
       <c r="N116" t="s">
-        <v>633</v>
+        <v>730</v>
       </c>
       <c r="O116" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P116" t="n">
         <v>5</v>
@@ -10310,51 +11127,52 @@
       <c r="V116" t="n">
         <v>0</v>
       </c>
-      <c r="W116" t="s"/>
-      <c r="X116" t="s"/>
-      <c r="Y116" t="s"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
         <v>37881</v>
       </c>
-      <c r="B117" t="s"/>
-      <c r="C117" t="s"/>
+      <c r="B117" t="n">
+        <v>15828</v>
+      </c>
+      <c r="C117" t="s">
+        <v>849</v>
+      </c>
       <c r="D117" t="n">
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F117" t="s">
-        <v>734</v>
+        <v>850</v>
       </c>
       <c r="G117" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H117" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I117" t="s">
-        <v>735</v>
+        <v>851</v>
       </c>
       <c r="J117" t="s">
-        <v>736</v>
+        <v>852</v>
       </c>
       <c r="K117" t="s">
-        <v>737</v>
+        <v>853</v>
       </c>
       <c r="L117" t="s">
-        <v>738</v>
+        <v>854</v>
       </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
       <c r="N117" t="s">
-        <v>633</v>
+        <v>730</v>
       </c>
       <c r="O117" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P117" t="n">
         <v>1</v>
@@ -10378,50 +11196,54 @@
       <c r="W117" t="s"/>
       <c r="X117" t="s"/>
       <c r="Y117" t="s">
-        <v>738</v>
+        <v>854</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
         <v>37881</v>
       </c>
-      <c r="B118" t="s"/>
-      <c r="C118" t="s"/>
+      <c r="B118" t="n">
+        <v>10044</v>
+      </c>
+      <c r="C118" t="s">
+        <v>855</v>
+      </c>
       <c r="D118" t="n">
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F118" t="s">
-        <v>739</v>
+        <v>856</v>
       </c>
       <c r="G118" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H118" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I118" t="s">
-        <v>740</v>
+        <v>857</v>
       </c>
       <c r="J118" t="s">
-        <v>741</v>
+        <v>858</v>
       </c>
       <c r="K118" t="s">
-        <v>742</v>
+        <v>859</v>
       </c>
       <c r="L118" t="s">
-        <v>743</v>
+        <v>860</v>
       </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
       <c r="N118" t="s">
-        <v>744</v>
+        <v>861</v>
       </c>
       <c r="O118" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="P118" t="n">
         <v>1</v>
@@ -10443,50 +11265,54 @@
       <c r="W118" t="s"/>
       <c r="X118" t="s"/>
       <c r="Y118" t="s">
-        <v>743</v>
+        <v>860</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
         <v>37881</v>
       </c>
-      <c r="B119" t="s"/>
-      <c r="C119" t="s"/>
+      <c r="B119" t="n">
+        <v>178472</v>
+      </c>
+      <c r="C119" t="s">
+        <v>862</v>
+      </c>
       <c r="D119" t="n">
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F119" t="s">
-        <v>745</v>
+        <v>863</v>
       </c>
       <c r="G119" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H119" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I119" t="s">
-        <v>746</v>
+        <v>864</v>
       </c>
       <c r="J119" t="s">
-        <v>747</v>
+        <v>865</v>
       </c>
       <c r="K119" t="s">
-        <v>748</v>
+        <v>866</v>
       </c>
       <c r="L119" t="s">
-        <v>749</v>
+        <v>867</v>
       </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
       <c r="N119" t="s">
-        <v>750</v>
+        <v>868</v>
       </c>
       <c r="O119" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P119" t="n">
         <v>1</v>
@@ -10510,50 +11336,54 @@
       <c r="W119" t="s"/>
       <c r="X119" t="s"/>
       <c r="Y119" t="s">
-        <v>751</v>
+        <v>869</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
         <v>37881</v>
       </c>
-      <c r="B120" t="s"/>
-      <c r="C120" t="s"/>
+      <c r="B120" t="n">
+        <v>4280</v>
+      </c>
+      <c r="C120" t="s">
+        <v>870</v>
+      </c>
       <c r="D120" t="n">
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F120" t="s">
-        <v>752</v>
+        <v>871</v>
       </c>
       <c r="G120" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H120" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I120" t="s">
-        <v>753</v>
+        <v>872</v>
       </c>
       <c r="J120" t="s">
-        <v>754</v>
+        <v>873</v>
       </c>
       <c r="K120" t="s">
-        <v>755</v>
+        <v>874</v>
       </c>
       <c r="L120" t="s">
-        <v>756</v>
+        <v>875</v>
       </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
       <c r="N120" t="s">
-        <v>750</v>
+        <v>868</v>
       </c>
       <c r="O120" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P120" t="n">
         <v>2</v>
@@ -10577,50 +11407,54 @@
       <c r="W120" t="s"/>
       <c r="X120" t="s"/>
       <c r="Y120" t="s">
-        <v>757</v>
+        <v>876</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
         <v>37881</v>
       </c>
-      <c r="B121" t="s"/>
-      <c r="C121" t="s"/>
+      <c r="B121" t="n">
+        <v>178473</v>
+      </c>
+      <c r="C121" t="s">
+        <v>877</v>
+      </c>
       <c r="D121" t="n">
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F121" t="s">
-        <v>758</v>
+        <v>878</v>
       </c>
       <c r="G121" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H121" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I121" t="s">
-        <v>759</v>
+        <v>879</v>
       </c>
       <c r="J121" t="s">
-        <v>760</v>
+        <v>880</v>
       </c>
       <c r="K121" t="s">
-        <v>761</v>
+        <v>881</v>
       </c>
       <c r="L121" t="s">
-        <v>762</v>
+        <v>882</v>
       </c>
       <c r="M121" t="n">
         <v>3</v>
       </c>
       <c r="N121" t="s">
-        <v>763</v>
+        <v>883</v>
       </c>
       <c r="O121" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P121" t="n">
         <v>4</v>
@@ -10644,50 +11478,54 @@
       <c r="W121" t="s"/>
       <c r="X121" t="s"/>
       <c r="Y121" t="s">
-        <v>762</v>
+        <v>882</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
         <v>37881</v>
       </c>
-      <c r="B122" t="s"/>
-      <c r="C122" t="s"/>
+      <c r="B122" t="n">
+        <v>178474</v>
+      </c>
+      <c r="C122" t="s">
+        <v>884</v>
+      </c>
       <c r="D122" t="n">
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F122" t="s">
-        <v>764</v>
+        <v>885</v>
       </c>
       <c r="G122" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H122" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I122" t="s">
-        <v>765</v>
+        <v>886</v>
       </c>
       <c r="J122" t="s">
-        <v>766</v>
+        <v>887</v>
       </c>
       <c r="K122" t="s">
-        <v>767</v>
+        <v>888</v>
       </c>
       <c r="L122" t="s">
-        <v>768</v>
+        <v>889</v>
       </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
       <c r="N122" t="s">
-        <v>769</v>
+        <v>890</v>
       </c>
       <c r="O122" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P122" t="n">
         <v>1</v>
@@ -10711,41 +11549,45 @@
       <c r="W122" t="s"/>
       <c r="X122" t="s"/>
       <c r="Y122" t="s">
-        <v>770</v>
+        <v>891</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
         <v>37881</v>
       </c>
-      <c r="B123" t="s"/>
-      <c r="C123" t="s"/>
+      <c r="B123" t="n">
+        <v>178475</v>
+      </c>
+      <c r="C123" t="s">
+        <v>892</v>
+      </c>
       <c r="D123" t="n">
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F123" t="s">
-        <v>771</v>
+        <v>893</v>
       </c>
       <c r="G123" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H123" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I123" t="s">
-        <v>772</v>
+        <v>894</v>
       </c>
       <c r="J123" t="s">
-        <v>773</v>
+        <v>895</v>
       </c>
       <c r="K123" t="s">
-        <v>774</v>
+        <v>896</v>
       </c>
       <c r="L123" t="s">
-        <v>775</v>
+        <v>897</v>
       </c>
       <c r="M123" t="n">
         <v>1</v>
@@ -10764,7 +11606,7 @@
       <c r="W123" t="s"/>
       <c r="X123" t="s"/>
       <c r="Y123" t="s">
-        <v>776</v>
+        <v>898</v>
       </c>
     </row>
   </sheetData>
